--- a/Timeseries-Testing/summary.xlsx
+++ b/Timeseries-Testing/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R-code\Timeseries-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42B0DF2-3B36-40F8-BDED-1C439DA5BA05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908037D-52DD-44F0-915B-9746440FF622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13284" windowHeight="6540" xr2:uid="{E888DDFE-0BB1-4B4D-9BFD-E692A878E1C8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
   <si>
     <t>Peak date</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>error_TIMESAT_harmonic</t>
+  </si>
+  <si>
+    <t>R_TIMESAT_SG</t>
+  </si>
+  <si>
+    <t>error_TIMESAT_SG</t>
+  </si>
+  <si>
+    <t>R_TIMESAT_SG_nonsmooth</t>
+  </si>
+  <si>
+    <t>R_TIMESAT_harmonic_nonsmooth</t>
   </si>
 </sst>
 </file>
@@ -653,6 +665,465 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8679-4B09-9EAC-213A8A0538C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_TIMESAT_SG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3D3-48E7-AD70-957F1F54377A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_TIMESAT_SG_nonsmooth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-033D-401B-B4DA-364BF3AA8BCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_TIMESAT_harmonic_nonsmooth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-033D-401B-B4DA-364BF3AA8BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -954,7 +1425,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -989,7 +1460,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:f>Sheet1!$O$3:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1043,7 +1514,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$17</c:f>
+              <c:f>Sheet1!$P$3:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1107,7 +1578,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1142,7 +1613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:f>Sheet1!$O$3:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1196,7 +1667,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$17</c:f>
+              <c:f>Sheet1!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1260,7 +1731,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1295,7 +1766,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:f>Sheet1!$O$3:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1349,7 +1820,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$17</c:f>
+              <c:f>Sheet1!$R$3:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1405,6 +1876,159 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5807-4D0E-AE6C-72562C3B69D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_TIMESAT_SG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F53-40DB-9060-95EC7F15130F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1711,7 +2335,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$2</c:f>
+              <c:f>Sheet1!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1746,7 +2370,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$17</c:f>
+              <c:f>Sheet1!$AA$3:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1800,7 +2424,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$3:$T$17</c:f>
+              <c:f>Sheet1!$AB$3:$AB$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1864,7 +2488,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$2</c:f>
+              <c:f>Sheet1!$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1899,7 +2523,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$17</c:f>
+              <c:f>Sheet1!$AA$3:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1953,7 +2577,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$3:$U$17</c:f>
+              <c:f>Sheet1!$AC$3:$AC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2017,7 +2641,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$2</c:f>
+              <c:f>Sheet1!$AD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2052,7 +2676,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$17</c:f>
+              <c:f>Sheet1!$AA$3:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2106,7 +2730,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$3:$V$17</c:f>
+              <c:f>Sheet1!$AD$3:$AD$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2162,6 +2786,159 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6A35-4F2A-8306-2EC07DD55FDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_TIMESAT_SG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$3:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C61-40B8-B3D9-D1F89C8421FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2468,7 +3245,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$2</c:f>
+              <c:f>Sheet1!$AN$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2503,7 +3280,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$17</c:f>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2557,7 +3334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$3:$AC$17</c:f>
+              <c:f>Sheet1!$AN$3:$AN$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2621,7 +3398,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AD$2</c:f>
+              <c:f>Sheet1!$AO$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2656,7 +3433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$17</c:f>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2710,7 +3487,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$17</c:f>
+              <c:f>Sheet1!$AO$3:$AO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2774,7 +3551,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$2</c:f>
+              <c:f>Sheet1!$AP$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2809,7 +3586,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$17</c:f>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2863,7 +3640,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE$3:$AE$17</c:f>
+              <c:f>Sheet1!$AP$3:$AP$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2919,6 +3696,465 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A0EE-43E9-9745-F9EB0C438213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AQ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_TIMESAT_SG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$3:$AQ$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAB1-4D51-8F5E-89CD84E73D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AR$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_TIMESAT_SG_nonsmooth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$3:$AR$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CA3-4935-9027-3D5606E9ED05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_TIMESAT_harmonic_nonsmooth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AS$3:$AS$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CA3-4935-9027-3D5606E9ED05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3220,7 +4456,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3307,7 +4543,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:f>Sheet1!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3371,7 +4607,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3458,7 +4694,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:f>Sheet1!$I$3:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3514,6 +4750,157 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-919A-4A48-91D0-0D0C04B2DDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error_TIMESAT_SG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96F8-4015-BE6B-525269DBC520}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3815,7 +5202,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3848,7 +5235,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:f>Sheet1!$O$3:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3902,7 +5289,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$17</c:f>
+              <c:f>Sheet1!$T$3:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3966,7 +5353,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$2</c:f>
+              <c:f>Sheet1!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3999,7 +5386,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:f>Sheet1!$O$3:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4053,7 +5440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:f>Sheet1!$U$3:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4109,6 +5496,157 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-07BC-43DF-BAE8-A8814306C783}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error_TIMESAT_SG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C51B-4AB8-BBE2-45DB66A2DA9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4410,7 +5948,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$2</c:f>
+              <c:f>Sheet1!$AF$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4443,7 +5981,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$17</c:f>
+              <c:f>Sheet1!$AA$3:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4497,7 +6035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$3:$W$17</c:f>
+              <c:f>Sheet1!$AF$3:$AF$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4561,7 +6099,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$2</c:f>
+              <c:f>Sheet1!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4594,7 +6132,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$17</c:f>
+              <c:f>Sheet1!$AA$3:$AA$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4648,7 +6186,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$3:$X$17</c:f>
+              <c:f>Sheet1!$AG$3:$AG$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4704,6 +6242,157 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-35EF-47C0-9576-B2DBB6B10812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error_TIMESAT_SG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$3:$AH$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A470-4579-8931-5783F637522A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5005,7 +6694,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$2</c:f>
+              <c:f>Sheet1!$AT$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5038,7 +6727,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$17</c:f>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5092,7 +6781,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AF$3:$AF$17</c:f>
+              <c:f>Sheet1!$AT$3:$AT$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5156,7 +6845,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$2</c:f>
+              <c:f>Sheet1!$AU$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5189,7 +6878,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$17</c:f>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5243,7 +6932,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AG$3:$AG$17</c:f>
+              <c:f>Sheet1!$AU$3:$AU$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5299,6 +6988,157 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1A21-4676-82E2-3736A94ECC9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AV$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error_TIMESAT_SG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AV$3:$AV$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C5D-4269-A62C-243948D1C878}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9973,14 +11813,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10008,14 +11848,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -10044,14 +11884,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -10080,16 +11920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10122,8 +11962,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -10152,14 +11992,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -10188,14 +12028,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -10224,14 +12064,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -10558,33 +12398,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57025290-9A00-4608-A9F8-6B3F7342BC6F}">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S31" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+    <sheetView tabSelected="1" topLeftCell="AK19" workbookViewId="0">
+      <selection activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AM1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10598,52 +12438,55 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
       <c r="V2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W2" t="s">
         <v>8</v>
@@ -10652,22 +12495,22 @@
         <v>9</v>
       </c>
       <c r="Y2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
       </c>
       <c r="AB2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="s">
         <v>8</v>
@@ -10676,13 +12519,58 @@
         <v>9</v>
       </c>
       <c r="AH2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>9</v>
       </c>
+      <c r="AK2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10696,107 +12584,163 @@
         <v>124</v>
       </c>
       <c r="E3">
+        <v>119</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+      <c r="G3">
+        <v>119</v>
+      </c>
+      <c r="H3">
         <f>B3-C3</f>
         <v>-18</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <f>B3-D3</f>
         <v>2</v>
       </c>
-      <c r="G3">
-        <f>ABS(E3)</f>
+      <c r="J3">
+        <f>B3-E3</f>
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <f>ABS(H3)</f>
         <v>18</v>
       </c>
-      <c r="H3">
-        <f>ABS(F3)</f>
+      <c r="L3">
+        <f>ABS(I3)</f>
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="M3">
+        <f>ABS(J3)</f>
+        <v>7</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <v>56</v>
       </c>
-      <c r="L3">
+      <c r="Q3">
         <v>73</v>
       </c>
-      <c r="M3">
+      <c r="R3">
         <v>60</v>
       </c>
-      <c r="N3">
-        <f>K3-L3</f>
+      <c r="S3">
+        <v>62</v>
+      </c>
+      <c r="T3">
+        <f>P3-Q3</f>
         <v>-17</v>
       </c>
-      <c r="O3">
-        <f>K3-M3</f>
+      <c r="U3">
+        <f>P3-R3</f>
         <v>-4</v>
       </c>
-      <c r="P3">
-        <f>ABS(N3)</f>
+      <c r="V3">
+        <f>P3-S3</f>
+        <v>-6</v>
+      </c>
+      <c r="W3">
+        <f>ABS(T3)</f>
         <v>17</v>
       </c>
-      <c r="Q3">
-        <f>ABS(O3)</f>
+      <c r="X3">
+        <f>ABS(U3)</f>
         <v>4</v>
       </c>
-      <c r="S3">
+      <c r="Y3">
+        <f>ABS(V3)</f>
+        <v>6</v>
+      </c>
+      <c r="AA3">
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="AB3">
         <v>166</v>
       </c>
-      <c r="U3">
+      <c r="AC3">
         <v>193</v>
       </c>
-      <c r="V3">
+      <c r="AD3">
         <v>185</v>
       </c>
-      <c r="W3">
-        <f>T3-U3</f>
+      <c r="AE3">
+        <v>207</v>
+      </c>
+      <c r="AF3">
+        <f>AB3-AC3</f>
         <v>-27</v>
       </c>
-      <c r="X3">
-        <f>T3-V3</f>
+      <c r="AG3">
+        <f>AB3-AD3</f>
         <v>-19</v>
       </c>
-      <c r="Y3">
-        <f>ABS(W3)</f>
+      <c r="AH3">
+        <f>AB3-AE3</f>
+        <v>-41</v>
+      </c>
+      <c r="AI3">
+        <f>ABS(AF3)</f>
         <v>27</v>
       </c>
-      <c r="Z3">
-        <f>ABS(X3)</f>
+      <c r="AJ3">
+        <f>ABS(AG3)</f>
         <v>19</v>
       </c>
-      <c r="AB3">
+      <c r="AK3">
+        <f>ABS(AH3)</f>
+        <v>41</v>
+      </c>
+      <c r="AM3">
         <v>1</v>
       </c>
-      <c r="AC3">
+      <c r="AN3">
         <v>40</v>
       </c>
-      <c r="AD3">
+      <c r="AO3">
         <v>47</v>
       </c>
-      <c r="AE3">
+      <c r="AP3">
         <v>36</v>
       </c>
-      <c r="AF3">
-        <f>AC3-AD3</f>
+      <c r="AQ3">
+        <v>34</v>
+      </c>
+      <c r="AR3">
+        <v>35</v>
+      </c>
+      <c r="AS3">
+        <v>26</v>
+      </c>
+      <c r="AT3">
+        <f>AN3-AO3</f>
         <v>-7</v>
       </c>
-      <c r="AG3">
-        <f>AC3-AE3</f>
+      <c r="AU3">
+        <f>AN3-AP3</f>
         <v>4</v>
       </c>
-      <c r="AH3">
-        <f>ABS(AF3)</f>
+      <c r="AV3">
+        <f>AN3-AQ3</f>
+        <v>6</v>
+      </c>
+      <c r="AW3">
+        <f>ABS(AT3)</f>
         <v>7</v>
       </c>
-      <c r="AI3">
-        <f>ABS(AG3)</f>
+      <c r="AX3">
+        <f>ABS(AU3)</f>
         <v>4</v>
       </c>
+      <c r="AY3">
+        <f>ABS(AV3)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10810,107 +12754,163 @@
         <v>160</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E17" si="0">B4-C4</f>
+        <v>163</v>
+      </c>
+      <c r="F4">
+        <v>166</v>
+      </c>
+      <c r="G4">
+        <v>162</v>
+      </c>
+      <c r="H4">
+        <f>B4-C4</f>
         <v>23</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F17" si="1">B4-D4</f>
+      <c r="I4">
+        <f>B4-D4</f>
         <v>20</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G17" si="2">ABS(E4)</f>
+      <c r="J4">
+        <f>B4-E4</f>
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K17" si="0">ABS(H4)</f>
         <v>23</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H17" si="3">ABS(F4)</f>
+      <c r="L4">
+        <f t="shared" ref="L4:L17" si="1">ABS(I4)</f>
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="M4">
+        <f t="shared" ref="M4:M17" si="2">ABS(J4)</f>
+        <v>17</v>
+      </c>
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>85</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>99</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>98</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N17" si="4">K4-L4</f>
+      <c r="S4">
+        <v>117</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T17" si="3">P4-Q4</f>
         <v>-14</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O17" si="5">K4-M4</f>
+      <c r="U4">
+        <f t="shared" ref="U4:U17" si="4">P4-R4</f>
         <v>-13</v>
       </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P17" si="6">ABS(N4)</f>
+      <c r="V4">
+        <f t="shared" ref="V4:V17" si="5">P4-S4</f>
+        <v>-32</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W17" si="6">ABS(T4)</f>
         <v>14</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q17" si="7">ABS(O4)</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X17" si="7">ABS(U4)</f>
         <v>13</v>
       </c>
-      <c r="S4">
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y17" si="8">ABS(V4)</f>
+        <v>32</v>
+      </c>
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="T4">
+      <c r="AB4">
         <v>233</v>
       </c>
-      <c r="U4">
+      <c r="AC4">
         <v>213</v>
       </c>
-      <c r="V4">
+      <c r="AD4">
         <v>209</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W17" si="8">T4-U4</f>
+      <c r="AE4">
+        <v>202</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF17" si="9">AB4-AC4</f>
         <v>20</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X17" si="9">T4-V4</f>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG17" si="10">AB4-AD4</f>
         <v>24</v>
       </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y17" si="10">ABS(W4)</f>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH17" si="11">AB4-AE4</f>
+        <v>31</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI17" si="12">ABS(AF4)</f>
         <v>20</v>
       </c>
-      <c r="Z4">
-        <f t="shared" ref="Z4:Z17" si="11">ABS(X4)</f>
+      <c r="AJ4">
+        <f t="shared" ref="AJ4:AJ17" si="13">ABS(AG4)</f>
         <v>24</v>
       </c>
-      <c r="AB4">
+      <c r="AK4">
+        <f t="shared" ref="AK4:AK17" si="14">ABS(AH4)</f>
+        <v>31</v>
+      </c>
+      <c r="AM4">
         <v>2</v>
       </c>
-      <c r="AC4">
+      <c r="AN4">
         <v>54</v>
       </c>
-      <c r="AD4">
+      <c r="AO4">
         <v>37</v>
       </c>
-      <c r="AE4">
+      <c r="AP4">
         <v>31</v>
       </c>
-      <c r="AF4">
-        <f t="shared" ref="AF4:AF17" si="12">AC4-AD4</f>
+      <c r="AQ4">
+        <v>32</v>
+      </c>
+      <c r="AR4">
+        <v>25</v>
+      </c>
+      <c r="AS4">
+        <v>27</v>
+      </c>
+      <c r="AT4">
+        <f>AN4-AO4</f>
         <v>17</v>
       </c>
-      <c r="AG4">
-        <f t="shared" ref="AG4:AG17" si="13">AC4-AE4</f>
+      <c r="AU4">
+        <f>AN4-AP4</f>
         <v>23</v>
       </c>
-      <c r="AH4">
-        <f t="shared" ref="AH4:AH17" si="14">ABS(AF4)</f>
+      <c r="AV4">
+        <f>AN4-AQ4</f>
+        <v>22</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4:AW17" si="15">ABS(AT4)</f>
         <v>17</v>
       </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI17" si="15">ABS(AG4)</f>
+      <c r="AX4">
+        <f t="shared" ref="AX4:AX17" si="16">ABS(AU4)</f>
         <v>23</v>
       </c>
+      <c r="AY4">
+        <f t="shared" ref="AY4:AY17" si="17">ABS(AV4)</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10924,1506 +12924,2250 @@
         <v>127</v>
       </c>
       <c r="E5">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>135</v>
+      </c>
+      <c r="G5">
+        <v>133</v>
+      </c>
+      <c r="H5">
+        <f>B5-C5</f>
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <f>B5-D5</f>
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <f>B5-E5</f>
+        <v>8</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>65</v>
+      </c>
+      <c r="Q5">
+        <v>68</v>
+      </c>
+      <c r="R5">
+        <v>73</v>
+      </c>
+      <c r="S5">
+        <v>72</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="Y5">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AA5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="AB5">
+        <v>175</v>
+      </c>
+      <c r="AC5">
+        <v>181</v>
+      </c>
+      <c r="AD5">
+        <v>183</v>
+      </c>
+      <c r="AE5">
+        <v>190</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="9"/>
+        <v>-6</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="11"/>
+        <v>-15</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="AM5">
+        <v>3</v>
+      </c>
+      <c r="AN5">
+        <v>40</v>
+      </c>
+      <c r="AO5">
+        <v>38</v>
+      </c>
+      <c r="AP5">
+        <v>38</v>
+      </c>
+      <c r="AQ5">
+        <v>42</v>
+      </c>
+      <c r="AR5">
+        <v>42</v>
+      </c>
+      <c r="AS5">
+        <v>33</v>
+      </c>
+      <c r="AT5">
+        <f>AN5-AO5</f>
+        <v>2</v>
+      </c>
+      <c r="AU5">
+        <f>AN5-AP5</f>
+        <v>2</v>
+      </c>
+      <c r="AV5">
+        <f>AN5-AQ5</f>
+        <v>-2</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>158</v>
+      </c>
+      <c r="C6">
+        <v>144</v>
+      </c>
+      <c r="D6">
+        <v>146</v>
+      </c>
+      <c r="E6">
+        <v>143</v>
+      </c>
+      <c r="F6">
+        <v>144</v>
+      </c>
+      <c r="G6">
+        <v>151</v>
+      </c>
+      <c r="H6">
+        <f>B6-C6</f>
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f>B6-D6</f>
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <f>B6-E6</f>
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>74</v>
+      </c>
+      <c r="Q6">
+        <v>84</v>
+      </c>
+      <c r="R6">
+        <v>93</v>
+      </c>
+      <c r="S6">
+        <v>96</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>-22</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>206</v>
+      </c>
+      <c r="AC6">
+        <v>188</v>
+      </c>
+      <c r="AD6">
+        <v>188</v>
+      </c>
+      <c r="AE6">
+        <v>192</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="AM6">
+        <v>4</v>
+      </c>
+      <c r="AN6">
+        <v>48</v>
+      </c>
+      <c r="AO6">
+        <v>38</v>
+      </c>
+      <c r="AP6">
+        <v>35</v>
+      </c>
+      <c r="AQ6">
+        <v>34</v>
+      </c>
+      <c r="AR6">
+        <v>55</v>
+      </c>
+      <c r="AS6">
+        <v>38</v>
+      </c>
+      <c r="AT6">
+        <f>AN6-AO6</f>
+        <v>10</v>
+      </c>
+      <c r="AU6">
+        <f>AN6-AP6</f>
+        <v>13</v>
+      </c>
+      <c r="AV6">
+        <f>AN6-AQ6</f>
+        <v>14</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <v>137</v>
+      </c>
+      <c r="D7">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>138</v>
+      </c>
+      <c r="F7">
+        <v>136</v>
+      </c>
+      <c r="G7">
+        <v>145</v>
+      </c>
+      <c r="H7">
+        <f>B7-C7</f>
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f>B7-D7</f>
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f>B7-E7</f>
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>74</v>
+      </c>
+      <c r="Q7">
+        <v>77</v>
+      </c>
+      <c r="R7">
+        <v>80</v>
+      </c>
+      <c r="S7">
+        <v>76</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>184</v>
+      </c>
+      <c r="AC7">
+        <v>186</v>
+      </c>
+      <c r="AD7">
+        <v>186</v>
+      </c>
+      <c r="AE7">
+        <v>200</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="11"/>
+        <v>-16</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="AM7">
+        <v>5</v>
+      </c>
+      <c r="AN7">
+        <v>40</v>
+      </c>
+      <c r="AO7">
+        <v>39</v>
+      </c>
+      <c r="AP7">
+        <v>45</v>
+      </c>
+      <c r="AQ7">
+        <v>43</v>
+      </c>
+      <c r="AR7">
+        <v>35</v>
+      </c>
+      <c r="AS7">
+        <v>39</v>
+      </c>
+      <c r="AT7">
+        <f>AN7-AO7</f>
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <f>AN7-AP7</f>
+        <v>-5</v>
+      </c>
+      <c r="AV7">
+        <f>AN7-AQ7</f>
+        <v>-3</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>149</v>
+      </c>
+      <c r="C8">
+        <v>144</v>
+      </c>
+      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>139</v>
+      </c>
+      <c r="F8">
+        <v>137</v>
+      </c>
+      <c r="G8">
+        <v>152</v>
+      </c>
+      <c r="H8">
+        <f>B8-C8</f>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f>B8-D8</f>
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f>B8-E8</f>
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
         <v>65</v>
       </c>
-      <c r="L5">
+      <c r="Q8">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <v>76</v>
+      </c>
+      <c r="S8">
+        <v>80</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>197</v>
+      </c>
+      <c r="AC8">
+        <v>193</v>
+      </c>
+      <c r="AD8">
+        <v>189</v>
+      </c>
+      <c r="AE8">
+        <v>201</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AM8">
+        <v>6</v>
+      </c>
+      <c r="AN8">
+        <v>48</v>
+      </c>
+      <c r="AO8">
+        <v>47</v>
+      </c>
+      <c r="AP8">
+        <v>46</v>
+      </c>
+      <c r="AQ8">
+        <v>48</v>
+      </c>
+      <c r="AR8">
+        <v>43</v>
+      </c>
+      <c r="AS8">
+        <v>46</v>
+      </c>
+      <c r="AT8">
+        <f>AN8-AO8</f>
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <f>AN8-AP8</f>
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <f>AN8-AQ8</f>
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>157</v>
+      </c>
+      <c r="C9">
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>152</v>
+      </c>
+      <c r="E9">
+        <v>168</v>
+      </c>
+      <c r="F9">
+        <v>154</v>
+      </c>
+      <c r="G9">
+        <v>151</v>
+      </c>
+      <c r="H9">
+        <f>B9-C9</f>
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f>B9-D9</f>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f>B9-E9</f>
+        <v>-11</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>91</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>107</v>
+      </c>
+      <c r="S9">
+        <v>84</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>-16</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>195</v>
+      </c>
+      <c r="AC9">
+        <v>206</v>
+      </c>
+      <c r="AD9">
+        <v>200</v>
+      </c>
+      <c r="AE9">
+        <v>221</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="9"/>
+        <v>-11</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="11"/>
+        <v>-26</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="AM9">
+        <v>7</v>
+      </c>
+      <c r="AN9">
+        <v>38</v>
+      </c>
+      <c r="AO9">
+        <v>30</v>
+      </c>
+      <c r="AP9">
+        <v>31</v>
+      </c>
+      <c r="AQ9">
+        <v>38</v>
+      </c>
+      <c r="AR9">
+        <v>32</v>
+      </c>
+      <c r="AS9">
+        <v>30</v>
+      </c>
+      <c r="AT9">
+        <f>AN9-AO9</f>
+        <v>8</v>
+      </c>
+      <c r="AU9">
+        <f>AN9-AP9</f>
+        <v>7</v>
+      </c>
+      <c r="AV9">
+        <f>AN9-AQ9</f>
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>131</v>
+      </c>
+      <c r="E10">
+        <v>126</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
+      </c>
+      <c r="G10">
+        <v>124</v>
+      </c>
+      <c r="H10">
+        <f>B10-C10</f>
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <f>B10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>B10-E10</f>
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>61</v>
+      </c>
+      <c r="Q10">
+        <v>63</v>
+      </c>
+      <c r="R10">
         <v>68</v>
       </c>
-      <c r="M5">
-        <v>73</v>
-      </c>
-      <c r="N5">
+      <c r="S10">
+        <v>69</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="O5">
+        <v>-7</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="5"/>
         <v>-8</v>
       </c>
-      <c r="P5">
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>171</v>
+      </c>
+      <c r="AC10">
+        <v>190</v>
+      </c>
+      <c r="AD10">
+        <v>200</v>
+      </c>
+      <c r="AE10">
+        <v>201</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="9"/>
+        <v>-19</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="10"/>
+        <v>-29</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="AM10">
+        <v>8</v>
+      </c>
+      <c r="AN10">
+        <v>40</v>
+      </c>
+      <c r="AO10">
+        <v>44</v>
+      </c>
+      <c r="AP10">
+        <v>40</v>
+      </c>
+      <c r="AQ10">
+        <v>41</v>
+      </c>
+      <c r="AR10">
+        <v>24</v>
+      </c>
+      <c r="AS10">
+        <v>28</v>
+      </c>
+      <c r="AT10">
+        <f>AN10-AO10</f>
+        <v>-4</v>
+      </c>
+      <c r="AU10">
+        <f>AN10-AP10</f>
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <f>AN10-AQ10</f>
+        <v>-1</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>163</v>
+      </c>
+      <c r="C11">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>154</v>
+      </c>
+      <c r="F11">
+        <v>156</v>
+      </c>
+      <c r="G11">
+        <v>161</v>
+      </c>
+      <c r="H11">
+        <f>B11-C11</f>
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <f>B11-D11</f>
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <f>B11-E11</f>
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>97</v>
+      </c>
+      <c r="Q11">
+        <v>92</v>
+      </c>
+      <c r="R11">
+        <v>95</v>
+      </c>
+      <c r="S11">
+        <v>86</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11">
+        <v>201</v>
+      </c>
+      <c r="AC11">
+        <v>202</v>
+      </c>
+      <c r="AD11">
+        <v>200</v>
+      </c>
+      <c r="AE11">
+        <v>197</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AM11">
+        <v>9</v>
+      </c>
+      <c r="AN11">
+        <v>38</v>
+      </c>
+      <c r="AO11">
+        <v>39</v>
+      </c>
+      <c r="AP11">
+        <v>43</v>
+      </c>
+      <c r="AQ11">
+        <v>51</v>
+      </c>
+      <c r="AR11">
+        <v>44</v>
+      </c>
+      <c r="AS11">
+        <v>47</v>
+      </c>
+      <c r="AT11">
+        <f>AN11-AO11</f>
+        <v>-1</v>
+      </c>
+      <c r="AU11">
+        <f>AN11-AP11</f>
+        <v>-5</v>
+      </c>
+      <c r="AV11">
+        <f>AN11-AQ11</f>
+        <v>-13</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>161</v>
+      </c>
+      <c r="C12">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>153</v>
+      </c>
+      <c r="E12">
+        <v>160</v>
+      </c>
+      <c r="F12">
+        <v>161</v>
+      </c>
+      <c r="G12">
+        <v>153</v>
+      </c>
+      <c r="H12">
+        <f>B12-C12</f>
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f>B12-D12</f>
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <f>B12-E12</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>95</v>
+      </c>
+      <c r="Q12">
+        <v>98</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>96</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="X12">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>199</v>
+      </c>
+      <c r="AC12">
+        <v>204</v>
+      </c>
+      <c r="AD12">
+        <v>202</v>
+      </c>
+      <c r="AE12">
+        <v>218</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="11"/>
+        <v>-19</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>38</v>
+      </c>
+      <c r="AO12">
+        <v>39</v>
+      </c>
+      <c r="AP12">
+        <v>43</v>
+      </c>
+      <c r="AQ12">
+        <v>50</v>
+      </c>
+      <c r="AR12">
+        <v>55</v>
+      </c>
+      <c r="AS12">
+        <v>43</v>
+      </c>
+      <c r="AT12">
+        <f>AN12-AO12</f>
+        <v>-1</v>
+      </c>
+      <c r="AU12">
+        <f>AN12-AP12</f>
+        <v>-5</v>
+      </c>
+      <c r="AV12">
+        <f>AN12-AQ12</f>
+        <v>-12</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13">
+        <v>240</v>
+      </c>
+      <c r="D13">
+        <v>235</v>
+      </c>
+      <c r="E13">
+        <v>238</v>
+      </c>
+      <c r="F13">
+        <v>244</v>
+      </c>
+      <c r="G13">
+        <v>267</v>
+      </c>
+      <c r="H13">
+        <f>B13-C13</f>
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f>B13-D13</f>
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <f>B13-E13</f>
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>180</v>
+      </c>
+      <c r="Q13">
+        <v>162</v>
+      </c>
+      <c r="R13">
+        <v>162</v>
+      </c>
+      <c r="S13">
+        <v>161</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13">
+        <v>290</v>
+      </c>
+      <c r="AC13">
+        <v>313</v>
+      </c>
+      <c r="AD13">
+        <v>318</v>
+      </c>
+      <c r="AE13">
+        <v>319</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="9"/>
+        <v>-23</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="10"/>
+        <v>-28</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="11"/>
+        <v>-29</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="AM13">
+        <v>11</v>
+      </c>
+      <c r="AN13">
+        <v>40</v>
+      </c>
+      <c r="AO13">
+        <v>43</v>
+      </c>
+      <c r="AP13">
+        <v>41</v>
+      </c>
+      <c r="AQ13">
+        <v>39</v>
+      </c>
+      <c r="AR13">
+        <v>46</v>
+      </c>
+      <c r="AS13">
+        <v>60</v>
+      </c>
+      <c r="AT13">
+        <f>AN13-AO13</f>
+        <v>-3</v>
+      </c>
+      <c r="AU13">
+        <f>AN13-AP13</f>
+        <v>-1</v>
+      </c>
+      <c r="AV13">
+        <f>AN13-AQ13</f>
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>194</v>
+      </c>
+      <c r="C14">
+        <v>187</v>
+      </c>
+      <c r="D14">
+        <v>186</v>
+      </c>
+      <c r="E14">
+        <v>179</v>
+      </c>
+      <c r="F14">
+        <v>189</v>
+      </c>
+      <c r="G14">
+        <v>186</v>
+      </c>
+      <c r="H14">
+        <f>B14-C14</f>
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <f>B14-D14</f>
         <v>8</v>
       </c>
-      <c r="S5">
+      <c r="J14">
+        <f>B14-E14</f>
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>138</v>
+      </c>
+      <c r="Q14">
+        <v>120</v>
+      </c>
+      <c r="R14">
+        <v>120</v>
+      </c>
+      <c r="S14">
+        <v>133</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14">
+        <v>226</v>
+      </c>
+      <c r="AC14">
+        <v>232</v>
+      </c>
+      <c r="AD14">
+        <v>240</v>
+      </c>
+      <c r="AE14">
+        <v>230</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="9"/>
+        <v>-6</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="10"/>
+        <v>-14</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AM14">
+        <v>12</v>
+      </c>
+      <c r="AN14">
+        <v>32</v>
+      </c>
+      <c r="AO14">
+        <v>28</v>
+      </c>
+      <c r="AP14">
+        <v>27</v>
+      </c>
+      <c r="AQ14">
+        <v>24</v>
+      </c>
+      <c r="AR14">
+        <v>33</v>
+      </c>
+      <c r="AS14">
+        <v>31</v>
+      </c>
+      <c r="AT14">
+        <f>AN14-AO14</f>
+        <v>4</v>
+      </c>
+      <c r="AU14">
+        <f>AN14-AP14</f>
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <f>AN14-AQ14</f>
+        <v>8</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>163</v>
+      </c>
+      <c r="C15">
+        <v>153</v>
+      </c>
+      <c r="D15">
+        <v>158</v>
+      </c>
+      <c r="E15">
+        <v>170</v>
+      </c>
+      <c r="F15">
+        <v>154</v>
+      </c>
+      <c r="G15">
+        <v>157</v>
+      </c>
+      <c r="H15">
+        <f>B15-C15</f>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f>B15-D15</f>
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <f>B15-E15</f>
+        <v>-7</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>93</v>
+      </c>
+      <c r="Q15">
+        <v>88</v>
+      </c>
+      <c r="R15">
+        <v>68</v>
+      </c>
+      <c r="S15">
+        <v>66</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AA15">
+        <v>13</v>
+      </c>
+      <c r="AB15">
+        <v>203</v>
+      </c>
+      <c r="AC15">
+        <v>207</v>
+      </c>
+      <c r="AD15">
+        <v>207</v>
+      </c>
+      <c r="AE15">
+        <v>215</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="11"/>
+        <v>-12</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AM15">
+        <v>13</v>
+      </c>
+      <c r="AN15">
+        <v>40</v>
+      </c>
+      <c r="AO15">
+        <v>43</v>
+      </c>
+      <c r="AP15">
+        <v>53</v>
+      </c>
+      <c r="AQ15">
+        <v>60</v>
+      </c>
+      <c r="AR15">
+        <v>56</v>
+      </c>
+      <c r="AS15">
+        <v>57</v>
+      </c>
+      <c r="AT15">
+        <f>AN15-AO15</f>
+        <v>-3</v>
+      </c>
+      <c r="AU15">
+        <f>AN15-AP15</f>
+        <v>-13</v>
+      </c>
+      <c r="AV15">
+        <f>AN15-AQ15</f>
+        <v>-20</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="T5">
-        <v>175</v>
-      </c>
-      <c r="U5">
-        <v>181</v>
-      </c>
-      <c r="V5">
-        <v>183</v>
-      </c>
-      <c r="W5">
+      <c r="AX15">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>173</v>
+      </c>
+      <c r="C16">
+        <v>158</v>
+      </c>
+      <c r="D16">
+        <v>159</v>
+      </c>
+      <c r="E16">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>158</v>
+      </c>
+      <c r="G16">
+        <v>152</v>
+      </c>
+      <c r="H16">
+        <f>B16-C16</f>
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <f>B16-D16</f>
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <f>B16-E16</f>
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>134</v>
+      </c>
+      <c r="Q16">
+        <v>77</v>
+      </c>
+      <c r="R16">
+        <v>108</v>
+      </c>
+      <c r="S16">
+        <v>85</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="Y16">
         <f t="shared" si="8"/>
-        <v>-6</v>
-      </c>
-      <c r="X5">
+        <v>49</v>
+      </c>
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16">
+        <v>195</v>
+      </c>
+      <c r="AC16">
+        <v>210</v>
+      </c>
+      <c r="AD16">
+        <v>208</v>
+      </c>
+      <c r="AE16">
+        <v>213</v>
+      </c>
+      <c r="AF16">
         <f t="shared" si="9"/>
-        <v>-8</v>
-      </c>
-      <c r="Y5">
+        <v>-15</v>
+      </c>
+      <c r="AG16">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="Z5">
+        <v>-13</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-      <c r="AC5">
-        <v>40</v>
-      </c>
-      <c r="AD5">
-        <v>38</v>
-      </c>
-      <c r="AE5">
-        <v>38</v>
-      </c>
-      <c r="AF5">
+        <v>-18</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>158</v>
-      </c>
-      <c r="C6">
-        <v>144</v>
-      </c>
-      <c r="D6">
-        <v>146</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>74</v>
-      </c>
-      <c r="L6">
-        <v>84</v>
-      </c>
-      <c r="M6">
-        <v>93</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="5"/>
-        <v>-19</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>206</v>
-      </c>
-      <c r="U6">
-        <v>188</v>
-      </c>
-      <c r="V6">
-        <v>188</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="AB6">
-        <v>4</v>
-      </c>
-      <c r="AC6">
-        <v>48</v>
-      </c>
-      <c r="AD6">
-        <v>38</v>
-      </c>
-      <c r="AE6">
-        <v>35</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AG6">
+        <v>15</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="AH6">
+      <c r="AK16">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="AM16">
+        <v>14</v>
+      </c>
+      <c r="AN16">
+        <v>22</v>
+      </c>
+      <c r="AO16">
+        <v>37</v>
+      </c>
+      <c r="AP16">
+        <v>34</v>
+      </c>
+      <c r="AQ16">
+        <v>35</v>
+      </c>
+      <c r="AR16">
+        <v>30</v>
+      </c>
+      <c r="AS16">
+        <v>30</v>
+      </c>
+      <c r="AT16">
+        <f>AN16-AO16</f>
+        <v>-15</v>
+      </c>
+      <c r="AU16">
+        <f>AN16-AP16</f>
+        <v>-12</v>
+      </c>
+      <c r="AV16">
+        <f>AN16-AQ16</f>
+        <v>-13</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>151</v>
+      </c>
+      <c r="C17">
+        <v>146</v>
+      </c>
+      <c r="D17">
+        <v>145</v>
+      </c>
+      <c r="E17">
+        <v>149</v>
+      </c>
+      <c r="F17">
+        <v>151</v>
+      </c>
+      <c r="G17">
+        <v>152</v>
+      </c>
+      <c r="H17">
+        <f>B17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <f>B17-D17</f>
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <f>B17-E17</f>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>85</v>
+      </c>
+      <c r="Q17">
+        <v>74</v>
+      </c>
+      <c r="R17">
+        <v>79</v>
+      </c>
+      <c r="S17">
+        <v>85</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>15</v>
+      </c>
+      <c r="AB17">
+        <v>189</v>
+      </c>
+      <c r="AC17">
+        <v>204</v>
+      </c>
+      <c r="AD17">
+        <v>205</v>
+      </c>
+      <c r="AE17">
+        <v>199</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="9"/>
+        <v>-15</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="10"/>
+        <v>-16</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="AK17">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="AI6">
-        <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>144</v>
-      </c>
-      <c r="C7">
-        <v>137</v>
-      </c>
-      <c r="D7">
-        <v>140</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>74</v>
-      </c>
-      <c r="L7">
-        <v>77</v>
-      </c>
-      <c r="M7">
-        <v>80</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
+      <c r="AM17">
+        <v>15</v>
+      </c>
+      <c r="AN17">
+        <v>38</v>
+      </c>
+      <c r="AO17">
+        <v>39</v>
+      </c>
+      <c r="AP17">
+        <v>39</v>
+      </c>
+      <c r="AQ17">
+        <v>41</v>
+      </c>
+      <c r="AR17">
+        <v>54</v>
+      </c>
+      <c r="AS17">
+        <v>38</v>
+      </c>
+      <c r="AT17">
+        <f>AN17-AO17</f>
+        <v>-1</v>
+      </c>
+      <c r="AU17">
+        <f>AN17-AP17</f>
+        <v>-1</v>
+      </c>
+      <c r="AV17">
+        <f>AN17-AQ17</f>
         <v>-3</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
-        <v>-6</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
-      </c>
-      <c r="T7">
-        <v>184</v>
-      </c>
-      <c r="U7">
-        <v>186</v>
-      </c>
-      <c r="V7">
-        <v>186</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="8"/>
-        <v>-2</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="9"/>
-        <v>-2</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AB7">
-        <v>5</v>
-      </c>
-      <c r="AC7">
-        <v>40</v>
-      </c>
-      <c r="AD7">
-        <v>39</v>
-      </c>
-      <c r="AE7">
-        <v>45</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="13"/>
-        <v>-5</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>149</v>
-      </c>
-      <c r="C8">
-        <v>144</v>
-      </c>
-      <c r="D8">
-        <v>143</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>65</v>
-      </c>
-      <c r="L8">
-        <v>73</v>
-      </c>
-      <c r="M8">
-        <v>76</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
-        <v>-11</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
-      </c>
-      <c r="T8">
-        <v>197</v>
-      </c>
-      <c r="U8">
-        <v>193</v>
-      </c>
-      <c r="V8">
-        <v>189</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AB8">
-        <v>6</v>
-      </c>
-      <c r="AC8">
-        <v>48</v>
-      </c>
-      <c r="AD8">
-        <v>47</v>
-      </c>
-      <c r="AE8">
-        <v>46</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>157</v>
-      </c>
-      <c r="C9">
-        <v>151</v>
-      </c>
-      <c r="D9">
-        <v>152</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>91</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <v>107</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>-9</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
-        <v>-16</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="S9">
-        <v>7</v>
-      </c>
-      <c r="T9">
-        <v>195</v>
-      </c>
-      <c r="U9">
-        <v>206</v>
-      </c>
-      <c r="V9">
-        <v>200</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="8"/>
-        <v>-11</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="9"/>
-        <v>-5</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AB9">
-        <v>7</v>
-      </c>
-      <c r="AC9">
-        <v>38</v>
-      </c>
-      <c r="AD9">
-        <v>30</v>
-      </c>
-      <c r="AE9">
-        <v>31</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>131</v>
-      </c>
-      <c r="C10">
-        <v>132</v>
-      </c>
-      <c r="D10">
-        <v>131</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>61</v>
-      </c>
-      <c r="L10">
-        <v>63</v>
-      </c>
-      <c r="M10">
-        <v>68</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="5"/>
-        <v>-7</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>8</v>
-      </c>
-      <c r="T10">
-        <v>171</v>
-      </c>
-      <c r="U10">
-        <v>190</v>
-      </c>
-      <c r="V10">
-        <v>200</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="8"/>
-        <v>-19</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="9"/>
-        <v>-29</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-      <c r="AB10">
-        <v>8</v>
-      </c>
-      <c r="AC10">
-        <v>40</v>
-      </c>
-      <c r="AD10">
-        <v>44</v>
-      </c>
-      <c r="AE10">
-        <v>40</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="12"/>
-        <v>-4</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>163</v>
-      </c>
-      <c r="C11">
-        <v>152</v>
-      </c>
-      <c r="D11">
-        <v>153</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>97</v>
-      </c>
-      <c r="L11">
-        <v>92</v>
-      </c>
-      <c r="M11">
-        <v>95</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>9</v>
-      </c>
-      <c r="T11">
-        <v>201</v>
-      </c>
-      <c r="U11">
-        <v>202</v>
-      </c>
-      <c r="V11">
-        <v>200</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>9</v>
-      </c>
-      <c r="AC11">
-        <v>38</v>
-      </c>
-      <c r="AD11">
-        <v>39</v>
-      </c>
-      <c r="AE11">
-        <v>43</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="13"/>
-        <v>-5</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>161</v>
-      </c>
-      <c r="C12">
-        <v>153</v>
-      </c>
-      <c r="D12">
-        <v>153</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>95</v>
-      </c>
-      <c r="L12">
-        <v>98</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="S12">
-        <v>10</v>
-      </c>
-      <c r="T12">
-        <v>199</v>
-      </c>
-      <c r="U12">
-        <v>204</v>
-      </c>
-      <c r="V12">
-        <v>202</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="8"/>
-        <v>-5</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="9"/>
-        <v>-3</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AB12">
-        <v>10</v>
-      </c>
-      <c r="AC12">
-        <v>38</v>
-      </c>
-      <c r="AD12">
-        <v>39</v>
-      </c>
-      <c r="AE12">
-        <v>43</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="13"/>
-        <v>-5</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>250</v>
-      </c>
-      <c r="C13">
-        <v>240</v>
-      </c>
-      <c r="D13">
-        <v>235</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-      <c r="K13">
-        <v>180</v>
-      </c>
-      <c r="L13">
-        <v>162</v>
-      </c>
-      <c r="M13">
-        <v>162</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="S13">
-        <v>11</v>
-      </c>
-      <c r="T13">
-        <v>290</v>
-      </c>
-      <c r="U13">
-        <v>313</v>
-      </c>
-      <c r="V13">
-        <v>318</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="8"/>
-        <v>-23</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="9"/>
-        <v>-28</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="AB13">
-        <v>11</v>
-      </c>
-      <c r="AC13">
-        <v>40</v>
-      </c>
-      <c r="AD13">
-        <v>43</v>
-      </c>
-      <c r="AE13">
-        <v>41</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="12"/>
-        <v>-3</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="13"/>
-        <v>-1</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI13">
+      <c r="AW17">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
+      <c r="AX17">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>194</v>
-      </c>
-      <c r="C14">
-        <v>187</v>
-      </c>
-      <c r="D14">
-        <v>186</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>138</v>
-      </c>
-      <c r="L14">
-        <v>120</v>
-      </c>
-      <c r="M14">
-        <v>120</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="S14">
-        <v>12</v>
-      </c>
-      <c r="T14">
-        <v>226</v>
-      </c>
-      <c r="U14">
-        <v>232</v>
-      </c>
-      <c r="V14">
-        <v>240</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="8"/>
-        <v>-6</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="9"/>
-        <v>-14</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="AB14">
-        <v>12</v>
-      </c>
-      <c r="AC14">
-        <v>32</v>
-      </c>
-      <c r="AD14">
-        <v>28</v>
-      </c>
-      <c r="AE14">
-        <v>27</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>163</v>
-      </c>
-      <c r="C15">
-        <v>153</v>
-      </c>
-      <c r="D15">
-        <v>158</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>13</v>
-      </c>
-      <c r="K15">
-        <v>93</v>
-      </c>
-      <c r="L15">
-        <v>88</v>
-      </c>
-      <c r="M15">
-        <v>68</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="S15">
-        <v>13</v>
-      </c>
-      <c r="T15">
-        <v>203</v>
-      </c>
-      <c r="U15">
-        <v>207</v>
-      </c>
-      <c r="V15">
-        <v>207</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="8"/>
-        <v>-4</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="9"/>
-        <v>-4</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AB15">
-        <v>13</v>
-      </c>
-      <c r="AC15">
-        <v>40</v>
-      </c>
-      <c r="AD15">
-        <v>43</v>
-      </c>
-      <c r="AE15">
-        <v>53</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="12"/>
-        <v>-3</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="13"/>
-        <v>-13</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>173</v>
-      </c>
-      <c r="C16">
-        <v>158</v>
-      </c>
-      <c r="D16">
-        <v>159</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="J16">
-        <v>14</v>
-      </c>
-      <c r="K16">
-        <v>134</v>
-      </c>
-      <c r="L16">
-        <v>77</v>
-      </c>
-      <c r="M16">
-        <v>108</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="S16">
-        <v>14</v>
-      </c>
-      <c r="T16">
-        <v>195</v>
-      </c>
-      <c r="U16">
-        <v>210</v>
-      </c>
-      <c r="V16">
-        <v>208</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="8"/>
-        <v>-15</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="9"/>
-        <v>-13</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="AB16">
-        <v>14</v>
-      </c>
-      <c r="AC16">
-        <v>22</v>
-      </c>
-      <c r="AD16">
-        <v>37</v>
-      </c>
-      <c r="AE16">
-        <v>34</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="12"/>
-        <v>-15</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="13"/>
-        <v>-12</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>151</v>
-      </c>
-      <c r="C17">
-        <v>146</v>
-      </c>
-      <c r="D17">
-        <v>145</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
-      <c r="K17">
-        <v>85</v>
-      </c>
-      <c r="L17">
-        <v>74</v>
-      </c>
-      <c r="M17">
-        <v>79</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="S17">
-        <v>15</v>
-      </c>
-      <c r="T17">
-        <v>189</v>
-      </c>
-      <c r="U17">
-        <v>204</v>
-      </c>
-      <c r="V17">
-        <v>205</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="8"/>
-        <v>-15</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="9"/>
-        <v>-16</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="AB17">
-        <v>15</v>
-      </c>
-      <c r="AC17">
-        <v>38</v>
-      </c>
-      <c r="AD17">
-        <v>39</v>
-      </c>
-      <c r="AE17">
-        <v>39</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="13"/>
-        <v>-1</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G18">
-        <f>AVERAGE(G3:G17)</f>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f>AVERAGE(K3:K17)</f>
         <v>9.8666666666666671</v>
       </c>
-      <c r="H18">
-        <f>AVERAGE(H3:H17)</f>
+      <c r="L18">
+        <f>AVERAGE(L3:L17)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="P18">
-        <f>AVERAGE(P3:P17)</f>
+      <c r="M18">
+        <f>AVERAGE(M3:M17)</f>
+        <v>9.0666666666666664</v>
+      </c>
+      <c r="W18">
+        <f>AVERAGE(W3:W17)</f>
         <v>12.2</v>
       </c>
-      <c r="Q18">
-        <f>AVERAGE(Q3:Q17)</f>
+      <c r="X18">
+        <f>AVERAGE(X3:X17)</f>
         <v>12.266666666666667</v>
       </c>
       <c r="Y18">
         <f>AVERAGE(Y3:Y17)</f>
-        <v>11.733333333333333</v>
-      </c>
-      <c r="Z18">
-        <f>AVERAGE(Z3:Z17)</f>
-        <v>12.8</v>
-      </c>
-      <c r="AH18">
-        <f>AVERAGE(AH3:AH17)</f>
-        <v>5.2</v>
+        <v>14.066666666666666</v>
       </c>
       <c r="AI18">
         <f>AVERAGE(AI3:AI17)</f>
+        <v>11.733333333333333</v>
+      </c>
+      <c r="AJ18">
+        <f>AVERAGE(AJ3:AJ17)</f>
+        <v>12.8</v>
+      </c>
+      <c r="AK18">
+        <f>AVERAGE(AK3:AK17)</f>
+        <v>18.2</v>
+      </c>
+      <c r="AW18">
+        <f>AVERAGE(AW3:AW17)</f>
+        <v>5.2</v>
+      </c>
+      <c r="AX18">
+        <f>AVERAGE(AX3:AX17)</f>
         <v>6.5333333333333332</v>
+      </c>
+      <c r="AY18">
+        <f>AVERAGE(AY3:AY17)</f>
+        <v>7.8666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Timeseries-Testing/summary.xlsx
+++ b/Timeseries-Testing/summary.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R-code\Timeseries-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908037D-52DD-44F0-915B-9746440FF622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32CC914-AA47-48FF-AC9E-565D77ABEA1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13284" windowHeight="6540" xr2:uid="{E888DDFE-0BB1-4B4D-9BFD-E692A878E1C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="3" r:id="rId1"/>
+    <sheet name="for_estimation" sheetId="2" r:id="rId2"/>
+    <sheet name="old_summary" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
   <si>
     <t>Peak date</t>
   </si>
@@ -73,13 +75,108 @@
   <si>
     <t>R_TIMESAT_harmonic_nonsmooth</t>
   </si>
+  <si>
+    <t>estimated planting date</t>
+  </si>
+  <si>
+    <t>estimated harvest date</t>
+  </si>
+  <si>
+    <t>risingLimb_start_DOY</t>
+  </si>
+  <si>
+    <t>risingLimb_end_DOY</t>
+  </si>
+  <si>
+    <t>fallingLimb_start_DOY</t>
+  </si>
+  <si>
+    <t>fallingLimb_end_DOY</t>
+  </si>
+  <si>
+    <t>1harmonic: fittingStartDay</t>
+  </si>
+  <si>
+    <t>1harmonic: fittingEndDay</t>
+  </si>
+  <si>
+    <t>3harmonic: fittingStartDay</t>
+  </si>
+  <si>
+    <t>3harmonic: fittingEndDay</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>1harmonic_nls</t>
+  </si>
+  <si>
+    <t>3harmonic_TIMESAT</t>
+  </si>
+  <si>
+    <t>error SG</t>
+  </si>
+  <si>
+    <t>error 1harmonic_nls</t>
+  </si>
+  <si>
+    <t>error 3harmonic_TIMESAT</t>
+  </si>
+  <si>
+    <t>'2016-09-01'</t>
+  </si>
+  <si>
+    <t>'2017-02-01'</t>
+  </si>
+  <si>
+    <t>'2017-07-01'</t>
+  </si>
+  <si>
+    <t>SG fitting window size</t>
+  </si>
+  <si>
+    <t>2016-09-15'</t>
+  </si>
+  <si>
+    <t>2016-09-01'</t>
+  </si>
+  <si>
+    <t>2016-10-01'</t>
+  </si>
+  <si>
+    <t>'2016-10-15'</t>
+  </si>
+  <si>
+    <t>'2017-03-01'</t>
+  </si>
+  <si>
+    <t>'2016-10-01'</t>
+  </si>
+  <si>
+    <t>2017-03-01'</t>
+  </si>
+  <si>
+    <t>2016-11-01'</t>
+  </si>
+  <si>
+    <t>2017-04-01'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,8 +204,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,7 +318,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>old_summary!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -249,7 +353,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -303,7 +407,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:f>old_summary!$B$3:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -367,7 +471,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>old_summary!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -402,7 +506,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -456,7 +560,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$17</c:f>
+              <c:f>old_summary!$C$3:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -520,7 +624,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>old_summary!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -555,7 +659,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -609,7 +713,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$17</c:f>
+              <c:f>old_summary!$D$3:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -673,7 +777,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>old_summary!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -708,7 +812,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -762,7 +866,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:f>old_summary!$E$3:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -826,7 +930,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>old_summary!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -861,7 +965,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -915,7 +1019,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:f>old_summary!$F$3:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -979,7 +1083,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>old_summary!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1014,7 +1118,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1068,7 +1172,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$17</c:f>
+              <c:f>old_summary!$G$3:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1425,7 +1529,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$2</c:f>
+              <c:f>old_summary!$BD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1460,7 +1564,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:f>old_summary!$BC$3:$BC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1514,7 +1618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$17</c:f>
+              <c:f>old_summary!$BD$3:$BD$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1578,7 +1682,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$2</c:f>
+              <c:f>old_summary!$BE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1613,7 +1717,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:f>old_summary!$BC$3:$BC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1667,7 +1771,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$17</c:f>
+              <c:f>old_summary!$BE$3:$BE$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1731,7 +1835,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$2</c:f>
+              <c:f>old_summary!$BF$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1766,7 +1870,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:f>old_summary!$BC$3:$BC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1820,7 +1924,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$3:$R$17</c:f>
+              <c:f>old_summary!$BF$3:$BF$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1884,7 +1988,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$2</c:f>
+              <c:f>old_summary!$BG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1919,7 +2023,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:f>old_summary!$BC$3:$BC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1973,7 +2077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$17</c:f>
+              <c:f>old_summary!$BG$3:$BG$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2335,7 +2439,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$2</c:f>
+              <c:f>old_summary!$BP$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2370,7 +2474,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:f>old_summary!$BO$3:$BO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2424,7 +2528,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$17</c:f>
+              <c:f>old_summary!$BP$3:$BP$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2488,7 +2592,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$2</c:f>
+              <c:f>old_summary!$BQ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2523,7 +2627,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:f>old_summary!$BO$3:$BO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2577,7 +2681,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$3:$AC$17</c:f>
+              <c:f>old_summary!$BQ$3:$BQ$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2641,7 +2745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AD$2</c:f>
+              <c:f>old_summary!$BR$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2676,7 +2780,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:f>old_summary!$BO$3:$BO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2730,7 +2834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$17</c:f>
+              <c:f>old_summary!$BR$3:$BR$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2794,7 +2898,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$2</c:f>
+              <c:f>old_summary!$BS$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2829,7 +2933,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:f>old_summary!$BO$3:$BO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2883,7 +2987,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE$3:$AE$17</c:f>
+              <c:f>old_summary!$BS$3:$BS$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3245,7 +3349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$2</c:f>
+              <c:f>old_summary!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3280,7 +3384,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3334,7 +3438,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AN$3:$AN$17</c:f>
+              <c:f>old_summary!$R$3:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3398,7 +3502,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$2</c:f>
+              <c:f>old_summary!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3433,7 +3537,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3487,7 +3591,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AO$3:$AO$17</c:f>
+              <c:f>old_summary!$S$3:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3551,7 +3655,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$2</c:f>
+              <c:f>old_summary!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3586,7 +3690,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3640,7 +3744,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AP$3:$AP$17</c:f>
+              <c:f>old_summary!$T$3:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3704,7 +3808,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AQ$2</c:f>
+              <c:f>old_summary!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3739,7 +3843,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3793,7 +3897,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AQ$3:$AQ$17</c:f>
+              <c:f>old_summary!$U$3:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3857,7 +3961,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AR$2</c:f>
+              <c:f>old_summary!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3892,7 +3996,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3946,7 +4050,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AR$3:$AR$17</c:f>
+              <c:f>old_summary!$V$3:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4010,7 +4114,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AS$2</c:f>
+              <c:f>old_summary!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4045,7 +4149,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4099,7 +4203,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AS$3:$AS$17</c:f>
+              <c:f>old_summary!$W$3:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4456,7 +4560,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>old_summary!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4489,7 +4593,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4543,7 +4647,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$17</c:f>
+              <c:f>old_summary!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4607,7 +4711,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>old_summary!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4640,7 +4744,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4694,7 +4798,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$17</c:f>
+              <c:f>old_summary!$I$3:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4758,7 +4862,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>old_summary!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4791,7 +4895,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>old_summary!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4845,7 +4949,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:f>old_summary!$J$3:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5202,7 +5306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$2</c:f>
+              <c:f>old_summary!$BH$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5235,7 +5339,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:f>old_summary!$BC$3:$BC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5289,7 +5393,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$3:$T$17</c:f>
+              <c:f>old_summary!$BH$3:$BH$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5353,7 +5457,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$2</c:f>
+              <c:f>old_summary!$BI$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5386,7 +5490,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:f>old_summary!$BC$3:$BC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5440,7 +5544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$3:$U$17</c:f>
+              <c:f>old_summary!$BI$3:$BI$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5504,7 +5608,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$2</c:f>
+              <c:f>old_summary!$BJ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5537,7 +5641,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$17</c:f>
+              <c:f>old_summary!$BC$3:$BC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5591,7 +5695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$3:$V$17</c:f>
+              <c:f>old_summary!$BJ$3:$BJ$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5948,7 +6052,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$2</c:f>
+              <c:f>old_summary!$BT$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5981,7 +6085,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:f>old_summary!$BO$3:$BO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6035,7 +6139,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AF$3:$AF$17</c:f>
+              <c:f>old_summary!$BT$3:$BT$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6099,7 +6203,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$2</c:f>
+              <c:f>old_summary!$BU$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6132,7 +6236,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:f>old_summary!$BO$3:$BO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6186,7 +6290,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AG$3:$AG$17</c:f>
+              <c:f>old_summary!$BU$3:$BU$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6250,7 +6354,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AH$2</c:f>
+              <c:f>old_summary!$BV$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6283,7 +6387,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$17</c:f>
+              <c:f>old_summary!$BO$3:$BO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6337,7 +6441,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AH$3:$AH$17</c:f>
+              <c:f>old_summary!$BV$3:$BV$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6694,7 +6798,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AT$2</c:f>
+              <c:f>old_summary!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6727,7 +6831,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6781,7 +6885,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AT$3:$AT$17</c:f>
+              <c:f>old_summary!$X$3:$X$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6845,7 +6949,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AU$2</c:f>
+              <c:f>old_summary!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6878,7 +6982,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6932,7 +7036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AU$3:$AU$17</c:f>
+              <c:f>old_summary!$Y$3:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6996,7 +7100,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AV$2</c:f>
+              <c:f>old_summary!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7029,7 +7133,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$17</c:f>
+              <c:f>old_summary!$Q$3:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -7083,7 +7187,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AV$3:$AV$17</c:f>
+              <c:f>old_summary!$Z$3:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11848,13 +11952,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -11884,13 +11988,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -11920,13 +12024,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -11992,13 +12096,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -12028,13 +12132,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -12064,13 +12168,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -12397,180 +12501,1997 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A31560A-FA29-41C6-BE88-BA7066592A27}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.77734375" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>121</v>
+      </c>
+      <c r="F3">
+        <f>C3-B3</f>
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f>D3-B3</f>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>E3-B3</f>
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <f>ABS(F3)</f>
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f>ABS(G3)</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>ABS(H3)</f>
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>48</v>
+      </c>
+      <c r="Q3">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <v>35</v>
+      </c>
+      <c r="T3">
+        <f>Q3-P3</f>
+        <v>-13</v>
+      </c>
+      <c r="U3">
+        <f>R3-P3</f>
+        <v>-9</v>
+      </c>
+      <c r="V3">
+        <f>S3-P3</f>
+        <v>-13</v>
+      </c>
+      <c r="W3">
+        <f>ABS(T3)</f>
+        <v>13</v>
+      </c>
+      <c r="X3">
+        <f>ABS(U3)</f>
+        <v>9</v>
+      </c>
+      <c r="Y3">
+        <f>ABS(V3)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>138</v>
+      </c>
+      <c r="D5">
+        <v>132</v>
+      </c>
+      <c r="E5">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F4:F17" si="0">C5-B5</f>
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G4:G17" si="1">D5-B5</f>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H4:H17" si="2">E5-B5</f>
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I4:I17" si="3">ABS(F5)</f>
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J4:J17" si="4">ABS(G5)</f>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K4:K17" si="5">ABS(H5)</f>
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>48</v>
+      </c>
+      <c r="Q5">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>32</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T4:T17" si="6">Q5-P5</f>
+        <v>-12</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U4:U17" si="7">R5-P5</f>
+        <v>-8</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V4:V17" si="8">S5-P5</f>
+        <v>-16</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W4:W18" si="9">ABS(T5)</f>
+        <v>12</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X4:X18" si="10">ABS(U5)</f>
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y4:Y17" si="11">ABS(V5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>147</v>
+      </c>
+      <c r="C6">
+        <v>144</v>
+      </c>
+      <c r="D6">
+        <v>152</v>
+      </c>
+      <c r="E6">
+        <v>142</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>48</v>
+      </c>
+      <c r="Q6">
+        <v>27</v>
+      </c>
+      <c r="R6">
+        <v>42</v>
+      </c>
+      <c r="S6">
+        <v>25</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="8"/>
+        <v>-23</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>147</v>
+      </c>
+      <c r="C7">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>147</v>
+      </c>
+      <c r="E7">
+        <v>145</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>56</v>
+      </c>
+      <c r="Q7">
+        <v>37</v>
+      </c>
+      <c r="R7">
+        <v>41</v>
+      </c>
+      <c r="S7">
+        <v>39</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>-19</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>-15</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="8"/>
+        <v>-17</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>131</v>
+      </c>
+      <c r="C8">
+        <v>145</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>143</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-32</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>48</v>
+      </c>
+      <c r="Q8">
+        <v>35</v>
+      </c>
+      <c r="R8">
+        <v>43</v>
+      </c>
+      <c r="S8">
+        <v>34</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>-13</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="8"/>
+        <v>-14</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>157</v>
+      </c>
+      <c r="D9">
+        <v>155</v>
+      </c>
+      <c r="E9">
+        <v>153</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>46</v>
+      </c>
+      <c r="Q9">
+        <v>33</v>
+      </c>
+      <c r="R9">
+        <v>38</v>
+      </c>
+      <c r="S9">
+        <v>31</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>-13</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="8"/>
+        <v>-15</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>138</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <v>42</v>
+      </c>
+      <c r="R10">
+        <v>35</v>
+      </c>
+      <c r="S10">
+        <v>43</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>-13</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>177</v>
+      </c>
+      <c r="C11">
+        <v>159</v>
+      </c>
+      <c r="D11">
+        <v>149</v>
+      </c>
+      <c r="E11">
+        <v>156</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-28</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-21</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>46</v>
+      </c>
+      <c r="R11">
+        <v>37</v>
+      </c>
+      <c r="S11">
+        <v>40</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="7"/>
+        <v>-33</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="8"/>
+        <v>-30</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>157</v>
+      </c>
+      <c r="C12">
+        <v>154</v>
+      </c>
+      <c r="D12">
+        <v>153</v>
+      </c>
+      <c r="E12">
+        <v>158</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>41</v>
+      </c>
+      <c r="Q12">
+        <v>36</v>
+      </c>
+      <c r="R12">
+        <v>38</v>
+      </c>
+      <c r="S12">
+        <v>37</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>241</v>
+      </c>
+      <c r="C13">
+        <v>235</v>
+      </c>
+      <c r="D13">
+        <v>231</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>48</v>
+      </c>
+      <c r="Q13">
+        <v>41</v>
+      </c>
+      <c r="R13">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>185</v>
+      </c>
+      <c r="C14">
+        <v>184</v>
+      </c>
+      <c r="D14">
+        <v>185</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <f>D14-B14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>38</v>
+      </c>
+      <c r="Q14">
+        <v>27</v>
+      </c>
+      <c r="R14">
+        <v>46</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>153</v>
+      </c>
+      <c r="C15">
+        <v>167</v>
+      </c>
+      <c r="D15">
+        <v>165</v>
+      </c>
+      <c r="E15">
+        <v>162</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>54</v>
+      </c>
+      <c r="Q15">
+        <v>38</v>
+      </c>
+      <c r="R15">
+        <v>49</v>
+      </c>
+      <c r="S15">
+        <v>35</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>-16</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>-19</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>161</v>
+      </c>
+      <c r="C16">
+        <v>175</v>
+      </c>
+      <c r="D16">
+        <v>162</v>
+      </c>
+      <c r="E16">
+        <v>164</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>46</v>
+      </c>
+      <c r="Q16">
+        <v>42</v>
+      </c>
+      <c r="R16">
+        <v>56</v>
+      </c>
+      <c r="S16">
+        <v>36</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>153</v>
+      </c>
+      <c r="C17">
+        <v>144</v>
+      </c>
+      <c r="D17">
+        <v>144</v>
+      </c>
+      <c r="E17">
+        <v>141</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>54</v>
+      </c>
+      <c r="Q17">
+        <v>34</v>
+      </c>
+      <c r="R17">
+        <v>40</v>
+      </c>
+      <c r="S17">
+        <v>33</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="8"/>
+        <v>-21</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <f>AVERAGE(F3:F17)</f>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(G3:G17)</f>
+        <v>-4.3571428571428568</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(H3:H17)</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(I3:I17)</f>
+        <v>8.6428571428571423</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="12">AVERAGE(J3:J17)</f>
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>7.916666666666667</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGE(T3:T17)</f>
+        <v>-13.142857142857142</v>
+      </c>
+      <c r="U18">
+        <f>AVERAGE(U3:U17)</f>
+        <v>-7.7857142857142856</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGE(V3:V17)</f>
+        <v>-15.583333333333334</v>
+      </c>
+      <c r="W18">
+        <f>AVERAGE(W3:W17)</f>
+        <v>13.142857142857142</v>
+      </c>
+      <c r="X18">
+        <f>AVERAGE(X3:X17)</f>
+        <v>10.357142857142858</v>
+      </c>
+      <c r="Y18">
+        <f>AVERAGE(Y3:Y17)</f>
+        <v>15.583333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB65157-03D1-447B-92E0-3948812A428A}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140</v>
+      </c>
+      <c r="D4" s="1">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1">
+        <v>190</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>160</v>
+      </c>
+      <c r="D5" s="1">
+        <v>140</v>
+      </c>
+      <c r="E5" s="1">
+        <v>210</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1">
+        <v>140</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>170</v>
+      </c>
+      <c r="D8" s="1">
+        <v>150</v>
+      </c>
+      <c r="E8" s="1">
+        <v>210</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>140</v>
+      </c>
+      <c r="D9" s="1">
+        <v>130</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1">
+        <v>170</v>
+      </c>
+      <c r="D11" s="1">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1">
+        <v>220</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1">
+        <v>280</v>
+      </c>
+      <c r="D12" s="1">
+        <v>210</v>
+      </c>
+      <c r="E12" s="1">
+        <v>350</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+      <c r="D13" s="1">
+        <v>180</v>
+      </c>
+      <c r="E13" s="1">
+        <v>250</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1">
+        <v>180</v>
+      </c>
+      <c r="D14" s="1">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1">
+        <v>220</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1">
+        <v>160</v>
+      </c>
+      <c r="E15" s="1">
+        <v>240</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57025290-9A00-4608-A9F8-6B3F7342BC6F}">
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:BY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK19" workbookViewId="0">
-      <selection activeCell="AL23" sqref="AL23"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="36" max="36" width="12.109375" customWidth="1"/>
+    <col min="37" max="37" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC1" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BO1" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:77" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AV2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="BC2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12593,15 +14514,15 @@
         <v>119</v>
       </c>
       <c r="H3">
-        <f>B3-C3</f>
+        <f t="shared" ref="H3:H17" si="0">B3-C3</f>
         <v>-18</v>
       </c>
       <c r="I3">
-        <f>B3-D3</f>
+        <f t="shared" ref="I3:I17" si="1">B3-D3</f>
         <v>2</v>
       </c>
       <c r="J3">
-        <f>B3-E3</f>
+        <f t="shared" ref="J3:J17" si="2">B3-E3</f>
         <v>7</v>
       </c>
       <c r="K3">
@@ -12616,131 +14537,193 @@
         <f>ABS(J3)</f>
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="R3">
+        <v>40</v>
+      </c>
+      <c r="S3">
+        <v>47</v>
+      </c>
+      <c r="T3">
+        <v>36</v>
+      </c>
+      <c r="U3">
+        <v>34</v>
+      </c>
+      <c r="V3">
+        <v>35</v>
+      </c>
+      <c r="W3">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X17" si="3">R3-S3</f>
+        <v>-7</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y17" si="4">R3-T3</f>
+        <v>4</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z17" si="5">R3-U3</f>
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <f>ABS(X3)</f>
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <f>ABS(Y3)</f>
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <f>ABS(Z3)</f>
+        <v>6</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <f>B3-1.75*R3</f>
         <v>56</v>
       </c>
-      <c r="Q3">
+      <c r="AG3">
+        <f>C3-1.75*S3</f>
+        <v>61.75</v>
+      </c>
+      <c r="AH3">
+        <f>D3-1.75*T3</f>
+        <v>61</v>
+      </c>
+      <c r="AI3">
+        <f>E3-1.75*U3</f>
+        <v>59.5</v>
+      </c>
+      <c r="AJ3">
+        <f>AG3-AF3</f>
+        <v>5.75</v>
+      </c>
+      <c r="AK3">
+        <f>AH3-AF3</f>
+        <v>5</v>
+      </c>
+      <c r="AL3">
+        <f>AI3-AF3</f>
+        <v>3.5</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <f>B3+1.1*R3</f>
+        <v>170</v>
+      </c>
+      <c r="AS3">
+        <f>C3+1.1*S3</f>
+        <v>195.7</v>
+      </c>
+      <c r="AT3">
+        <f>D3+1.1*T3</f>
+        <v>163.6</v>
+      </c>
+      <c r="AU3">
+        <f>E3+1.1*U3</f>
+        <v>156.4</v>
+      </c>
+      <c r="AV3">
+        <f>AS3-AR3</f>
+        <v>25.699999999999989</v>
+      </c>
+      <c r="AW3">
+        <f>AT3-AR3</f>
+        <v>-6.4000000000000057</v>
+      </c>
+      <c r="AX3">
+        <f>AU3-AR3</f>
+        <v>-13.599999999999994</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>56</v>
+      </c>
+      <c r="BE3">
         <v>73</v>
       </c>
-      <c r="R3">
+      <c r="BF3">
         <v>60</v>
       </c>
-      <c r="S3">
+      <c r="BG3">
         <v>62</v>
       </c>
-      <c r="T3">
-        <f>P3-Q3</f>
+      <c r="BH3">
+        <f>BD3-BE3</f>
         <v>-17</v>
       </c>
-      <c r="U3">
-        <f>P3-R3</f>
+      <c r="BI3">
+        <f>BD3-BF3</f>
         <v>-4</v>
       </c>
-      <c r="V3">
-        <f>P3-S3</f>
+      <c r="BJ3">
+        <f>BD3-BG3</f>
         <v>-6</v>
       </c>
-      <c r="W3">
-        <f>ABS(T3)</f>
+      <c r="BK3">
+        <f>ABS(BH3)</f>
         <v>17</v>
       </c>
-      <c r="X3">
-        <f>ABS(U3)</f>
+      <c r="BL3">
+        <f>ABS(BI3)</f>
         <v>4</v>
       </c>
-      <c r="Y3">
-        <f>ABS(V3)</f>
+      <c r="BM3">
+        <f>ABS(BJ3)</f>
         <v>6</v>
       </c>
-      <c r="AA3">
+      <c r="BO3">
         <v>1</v>
       </c>
-      <c r="AB3">
+      <c r="BP3">
         <v>166</v>
       </c>
-      <c r="AC3">
+      <c r="BQ3">
         <v>193</v>
       </c>
-      <c r="AD3">
+      <c r="BR3">
         <v>185</v>
       </c>
-      <c r="AE3">
+      <c r="BS3">
         <v>207</v>
       </c>
-      <c r="AF3">
-        <f>AB3-AC3</f>
+      <c r="BT3">
+        <f>BP3-BQ3</f>
         <v>-27</v>
       </c>
-      <c r="AG3">
-        <f>AB3-AD3</f>
+      <c r="BU3">
+        <f>BP3-BR3</f>
         <v>-19</v>
       </c>
-      <c r="AH3">
-        <f>AB3-AE3</f>
+      <c r="BV3">
+        <f>BP3-BS3</f>
         <v>-41</v>
       </c>
-      <c r="AI3">
-        <f>ABS(AF3)</f>
+      <c r="BW3">
+        <f>ABS(BT3)</f>
         <v>27</v>
       </c>
-      <c r="AJ3">
-        <f>ABS(AG3)</f>
+      <c r="BX3">
+        <f>ABS(BU3)</f>
         <v>19</v>
       </c>
-      <c r="AK3">
-        <f>ABS(AH3)</f>
+      <c r="BY3">
+        <f>ABS(BV3)</f>
         <v>41</v>
       </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>40</v>
-      </c>
-      <c r="AO3">
-        <v>47</v>
-      </c>
-      <c r="AP3">
-        <v>36</v>
-      </c>
-      <c r="AQ3">
-        <v>34</v>
-      </c>
-      <c r="AR3">
-        <v>35</v>
-      </c>
-      <c r="AS3">
-        <v>26</v>
-      </c>
-      <c r="AT3">
-        <f>AN3-AO3</f>
-        <v>-7</v>
-      </c>
-      <c r="AU3">
-        <f>AN3-AP3</f>
-        <v>4</v>
-      </c>
-      <c r="AV3">
-        <f>AN3-AQ3</f>
-        <v>6</v>
-      </c>
-      <c r="AW3">
-        <f>ABS(AT3)</f>
-        <v>7</v>
-      </c>
-      <c r="AX3">
-        <f>ABS(AU3)</f>
-        <v>4</v>
-      </c>
-      <c r="AY3">
-        <f>ABS(AV3)</f>
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12763,154 +14746,216 @@
         <v>162</v>
       </c>
       <c r="H4">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I4">
-        <f>B4-D4</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J4">
-        <f>B4-E4</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K17" si="0">ABS(H4)</f>
+        <f t="shared" ref="K4:K17" si="6">ABS(H4)</f>
         <v>23</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L17" si="1">ABS(I4)</f>
+        <f t="shared" ref="L4:L17" si="7">ABS(I4)</f>
         <v>20</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M17" si="2">ABS(J4)</f>
+        <f t="shared" ref="M4:M17" si="8">ABS(J4)</f>
         <v>17</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="R4">
+        <v>54</v>
+      </c>
+      <c r="S4">
+        <v>37</v>
+      </c>
+      <c r="T4">
+        <v>31</v>
+      </c>
+      <c r="U4">
+        <v>32</v>
+      </c>
+      <c r="V4">
+        <v>25</v>
+      </c>
+      <c r="W4">
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA17" si="9">ABS(X4)</f>
+        <v>17</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB17" si="10">ABS(Y4)</f>
+        <v>23</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC17" si="11">ABS(Z4)</f>
+        <v>22</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF17" si="12">B4-1.75*R4</f>
+        <v>85.5</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG17" si="13">C4-1.75*S4</f>
+        <v>92.25</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH17" si="14">D4-1.75*T4</f>
+        <v>105.75</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI17" si="15">E4-1.75*U4</f>
+        <v>107</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" ref="AJ4:AJ17" si="16">AG4-AF4</f>
+        <v>6.75</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ref="AK4:AK17" si="17">AH4-AF4</f>
+        <v>20.25</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" ref="AL4:AL17" si="18">AI4-AF4</f>
+        <v>21.5</v>
+      </c>
+      <c r="AQ4">
+        <v>2</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" ref="AR4:AR17" si="19">B4+1.1*R4</f>
+        <v>239.4</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ref="AS4:AS17" si="20">C4+1.1*S4</f>
+        <v>197.7</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ref="AT4:AT17" si="21">D4+1.1*T4</f>
+        <v>194.1</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ref="AU4:AU17" si="22">E4+1.1*U4</f>
+        <v>198.2</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" ref="AV4:AV17" si="23">AS4-AR4</f>
+        <v>-41.700000000000017</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4:AW17" si="24">AT4-AR4</f>
+        <v>-45.300000000000011</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" ref="AX4:AX17" si="25">AU4-AR4</f>
+        <v>-41.200000000000017</v>
+      </c>
+      <c r="BC4">
+        <v>2</v>
+      </c>
+      <c r="BD4">
         <v>85</v>
       </c>
-      <c r="Q4">
+      <c r="BE4">
         <v>99</v>
       </c>
-      <c r="R4">
+      <c r="BF4">
         <v>98</v>
       </c>
-      <c r="S4">
+      <c r="BG4">
         <v>117</v>
       </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T17" si="3">P4-Q4</f>
+      <c r="BH4">
+        <f t="shared" ref="BH4:BH17" si="26">BD4-BE4</f>
         <v>-14</v>
       </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U17" si="4">P4-R4</f>
+      <c r="BI4">
+        <f t="shared" ref="BI4:BI17" si="27">BD4-BF4</f>
         <v>-13</v>
       </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V17" si="5">P4-S4</f>
+      <c r="BJ4">
+        <f t="shared" ref="BJ4:BJ17" si="28">BD4-BG4</f>
         <v>-32</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W17" si="6">ABS(T4)</f>
+      <c r="BK4">
+        <f t="shared" ref="BK4:BK17" si="29">ABS(BH4)</f>
         <v>14</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X17" si="7">ABS(U4)</f>
+      <c r="BL4">
+        <f t="shared" ref="BL4:BL17" si="30">ABS(BI4)</f>
         <v>13</v>
       </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y17" si="8">ABS(V4)</f>
+      <c r="BM4">
+        <f t="shared" ref="BM4:BM17" si="31">ABS(BJ4)</f>
         <v>32</v>
       </c>
-      <c r="AA4">
+      <c r="BO4">
         <v>2</v>
       </c>
-      <c r="AB4">
+      <c r="BP4">
         <v>233</v>
       </c>
-      <c r="AC4">
+      <c r="BQ4">
         <v>213</v>
       </c>
-      <c r="AD4">
+      <c r="BR4">
         <v>209</v>
       </c>
-      <c r="AE4">
+      <c r="BS4">
         <v>202</v>
       </c>
-      <c r="AF4">
-        <f t="shared" ref="AF4:AF17" si="9">AB4-AC4</f>
+      <c r="BT4">
+        <f t="shared" ref="BT4:BT17" si="32">BP4-BQ4</f>
         <v>20</v>
       </c>
-      <c r="AG4">
-        <f t="shared" ref="AG4:AG17" si="10">AB4-AD4</f>
+      <c r="BU4">
+        <f t="shared" ref="BU4:BU17" si="33">BP4-BR4</f>
         <v>24</v>
       </c>
-      <c r="AH4">
-        <f t="shared" ref="AH4:AH17" si="11">AB4-AE4</f>
+      <c r="BV4">
+        <f t="shared" ref="BV4:BV17" si="34">BP4-BS4</f>
         <v>31</v>
       </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI17" si="12">ABS(AF4)</f>
+      <c r="BW4">
+        <f t="shared" ref="BW4:BW17" si="35">ABS(BT4)</f>
         <v>20</v>
       </c>
-      <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ17" si="13">ABS(AG4)</f>
+      <c r="BX4">
+        <f t="shared" ref="BX4:BX17" si="36">ABS(BU4)</f>
         <v>24</v>
       </c>
-      <c r="AK4">
-        <f t="shared" ref="AK4:AK17" si="14">ABS(AH4)</f>
+      <c r="BY4">
+        <f t="shared" ref="BY4:BY17" si="37">ABS(BV4)</f>
         <v>31</v>
       </c>
-      <c r="AM4">
-        <v>2</v>
-      </c>
-      <c r="AN4">
-        <v>54</v>
-      </c>
-      <c r="AO4">
-        <v>37</v>
-      </c>
-      <c r="AP4">
-        <v>31</v>
-      </c>
-      <c r="AQ4">
-        <v>32</v>
-      </c>
-      <c r="AR4">
-        <v>25</v>
-      </c>
-      <c r="AS4">
-        <v>27</v>
-      </c>
-      <c r="AT4">
-        <f>AN4-AO4</f>
-        <v>17</v>
-      </c>
-      <c r="AU4">
-        <f>AN4-AP4</f>
-        <v>23</v>
-      </c>
-      <c r="AV4">
-        <f>AN4-AQ4</f>
-        <v>22</v>
-      </c>
-      <c r="AW4">
-        <f t="shared" ref="AW4:AW17" si="15">ABS(AT4)</f>
-        <v>17</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" ref="AX4:AX17" si="16">ABS(AU4)</f>
-        <v>23</v>
-      </c>
-      <c r="AY4">
-        <f t="shared" ref="AY4:AY17" si="17">ABS(AV4)</f>
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12933,2194 +14978,3000 @@
         <v>133</v>
       </c>
       <c r="H5">
-        <f>B5-C5</f>
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <f>B5-D5</f>
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <f>B5-E5</f>
-        <v>8</v>
-      </c>
-      <c r="K5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="J5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O5">
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="P5">
+      <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <v>38</v>
+      </c>
+      <c r="U5">
+        <v>42</v>
+      </c>
+      <c r="V5">
+        <v>42</v>
+      </c>
+      <c r="W5">
+        <v>33</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
-      <c r="Q5">
+      <c r="AG5">
+        <f t="shared" si="13"/>
+        <v>60.5</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="14"/>
+        <v>60.5</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="15"/>
+        <v>53.5</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="16"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="17"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="18"/>
+        <v>-11.5</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="19"/>
+        <v>179</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="20"/>
+        <v>168.8</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="21"/>
+        <v>168.8</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="22"/>
+        <v>173.2</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="23"/>
+        <v>-10.199999999999989</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="24"/>
+        <v>-10.199999999999989</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="25"/>
+        <v>-5.8000000000000114</v>
+      </c>
+      <c r="BC5">
+        <v>3</v>
+      </c>
+      <c r="BD5">
+        <v>65</v>
+      </c>
+      <c r="BE5">
         <v>68</v>
       </c>
-      <c r="R5">
+      <c r="BF5">
         <v>73</v>
       </c>
-      <c r="S5">
+      <c r="BG5">
         <v>72</v>
       </c>
-      <c r="T5">
+      <c r="BH5">
+        <f t="shared" si="26"/>
+        <v>-3</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="27"/>
+        <v>-8</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" si="28"/>
+        <v>-7</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="BO5">
+        <v>3</v>
+      </c>
+      <c r="BP5">
+        <v>175</v>
+      </c>
+      <c r="BQ5">
+        <v>181</v>
+      </c>
+      <c r="BR5">
+        <v>183</v>
+      </c>
+      <c r="BS5">
+        <v>190</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+      <c r="BU5">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+      <c r="BV5">
+        <f t="shared" si="34"/>
+        <v>-15</v>
+      </c>
+      <c r="BW5">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="BX5">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="BY5">
+        <f t="shared" si="37"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>158</v>
+      </c>
+      <c r="C6">
+        <v>144</v>
+      </c>
+      <c r="D6">
+        <v>146</v>
+      </c>
+      <c r="E6">
+        <v>143</v>
+      </c>
+      <c r="F6">
+        <v>144</v>
+      </c>
+      <c r="G6">
+        <v>151</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>48</v>
+      </c>
+      <c r="S6">
+        <v>38</v>
+      </c>
+      <c r="T6">
+        <v>35</v>
+      </c>
+      <c r="U6">
+        <v>34</v>
+      </c>
+      <c r="V6">
+        <v>55</v>
+      </c>
+      <c r="W6">
+        <v>38</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="13"/>
+        <v>77.5</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="14"/>
+        <v>84.75</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="15"/>
+        <v>83.5</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="16"/>
+        <v>3.5</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="17"/>
+        <v>10.75</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="18"/>
+        <v>9.5</v>
+      </c>
+      <c r="AQ6">
+        <v>4</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="19"/>
+        <v>210.8</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="20"/>
+        <v>185.8</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="21"/>
+        <v>184.5</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="22"/>
+        <v>180.4</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="23"/>
+        <v>-25</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="24"/>
+        <v>-26.300000000000011</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="25"/>
+        <v>-30.400000000000006</v>
+      </c>
+      <c r="BC6">
+        <v>4</v>
+      </c>
+      <c r="BD6">
+        <v>74</v>
+      </c>
+      <c r="BE6">
+        <v>84</v>
+      </c>
+      <c r="BF6">
+        <v>93</v>
+      </c>
+      <c r="BG6">
+        <v>96</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" si="27"/>
+        <v>-19</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" si="28"/>
+        <v>-22</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" si="31"/>
+        <v>22</v>
+      </c>
+      <c r="BO6">
+        <v>4</v>
+      </c>
+      <c r="BP6">
+        <v>206</v>
+      </c>
+      <c r="BQ6">
+        <v>188</v>
+      </c>
+      <c r="BR6">
+        <v>188</v>
+      </c>
+      <c r="BS6">
+        <v>192</v>
+      </c>
+      <c r="BT6">
+        <f t="shared" si="32"/>
+        <v>18</v>
+      </c>
+      <c r="BU6">
+        <f t="shared" si="33"/>
+        <v>18</v>
+      </c>
+      <c r="BV6">
+        <f t="shared" si="34"/>
+        <v>14</v>
+      </c>
+      <c r="BW6">
+        <f t="shared" si="35"/>
+        <v>18</v>
+      </c>
+      <c r="BX6">
+        <f t="shared" si="36"/>
+        <v>18</v>
+      </c>
+      <c r="BY6">
+        <f t="shared" si="37"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <v>137</v>
+      </c>
+      <c r="D7">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>138</v>
+      </c>
+      <c r="F7">
+        <v>136</v>
+      </c>
+      <c r="G7">
+        <v>145</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>39</v>
+      </c>
+      <c r="T7">
+        <v>45</v>
+      </c>
+      <c r="U7">
+        <v>43</v>
+      </c>
+      <c r="V7">
+        <v>35</v>
+      </c>
+      <c r="W7">
+        <v>39</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="13"/>
+        <v>68.75</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="14"/>
+        <v>61.25</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="15"/>
+        <v>62.75</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="16"/>
+        <v>-5.25</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="17"/>
+        <v>-12.75</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="18"/>
+        <v>-11.25</v>
+      </c>
+      <c r="AQ7">
+        <v>5</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="19"/>
+        <v>188</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="20"/>
+        <v>179.9</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="21"/>
+        <v>189.5</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="22"/>
+        <v>185.3</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="23"/>
+        <v>-8.0999999999999943</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="24"/>
+        <v>1.5</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="25"/>
+        <v>-2.6999999999999886</v>
+      </c>
+      <c r="BC7">
+        <v>5</v>
+      </c>
+      <c r="BD7">
+        <v>74</v>
+      </c>
+      <c r="BE7">
+        <v>77</v>
+      </c>
+      <c r="BF7">
+        <v>80</v>
+      </c>
+      <c r="BG7">
+        <v>76</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="26"/>
+        <v>-3</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="27"/>
+        <v>-6</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="28"/>
+        <v>-2</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="BO7">
+        <v>5</v>
+      </c>
+      <c r="BP7">
+        <v>184</v>
+      </c>
+      <c r="BQ7">
+        <v>186</v>
+      </c>
+      <c r="BR7">
+        <v>186</v>
+      </c>
+      <c r="BS7">
+        <v>200</v>
+      </c>
+      <c r="BT7">
+        <f t="shared" si="32"/>
+        <v>-2</v>
+      </c>
+      <c r="BU7">
+        <f t="shared" si="33"/>
+        <v>-2</v>
+      </c>
+      <c r="BV7">
+        <f t="shared" si="34"/>
+        <v>-16</v>
+      </c>
+      <c r="BW7">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="BX7">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="BY7">
+        <f t="shared" si="37"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>149</v>
+      </c>
+      <c r="C8">
+        <v>144</v>
+      </c>
+      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>139</v>
+      </c>
+      <c r="F8">
+        <v>137</v>
+      </c>
+      <c r="G8">
+        <v>152</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>48</v>
+      </c>
+      <c r="S8">
+        <v>47</v>
+      </c>
+      <c r="T8">
+        <v>46</v>
+      </c>
+      <c r="U8">
+        <v>48</v>
+      </c>
+      <c r="V8">
+        <v>43</v>
+      </c>
+      <c r="W8">
+        <v>46</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="13"/>
+        <v>61.75</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="14"/>
+        <v>62.5</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="16"/>
+        <v>-3.25</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="17"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="18"/>
+        <v>-10</v>
+      </c>
+      <c r="AQ8">
+        <v>6</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="19"/>
+        <v>201.8</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="20"/>
+        <v>195.7</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="21"/>
+        <v>193.6</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="22"/>
+        <v>191.8</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="23"/>
+        <v>-6.1000000000000227</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="24"/>
+        <v>-8.2000000000000171</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="25"/>
+        <v>-10</v>
+      </c>
+      <c r="BC8">
+        <v>6</v>
+      </c>
+      <c r="BD8">
+        <v>65</v>
+      </c>
+      <c r="BE8">
+        <v>73</v>
+      </c>
+      <c r="BF8">
+        <v>76</v>
+      </c>
+      <c r="BG8">
+        <v>80</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="26"/>
+        <v>-8</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="27"/>
+        <v>-11</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" si="28"/>
+        <v>-15</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" si="31"/>
+        <v>15</v>
+      </c>
+      <c r="BO8">
+        <v>6</v>
+      </c>
+      <c r="BP8">
+        <v>197</v>
+      </c>
+      <c r="BQ8">
+        <v>193</v>
+      </c>
+      <c r="BR8">
+        <v>189</v>
+      </c>
+      <c r="BS8">
+        <v>201</v>
+      </c>
+      <c r="BT8">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="BU8">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="BV8">
+        <f t="shared" si="34"/>
+        <v>-4</v>
+      </c>
+      <c r="BW8">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="BX8">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="BY8">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>157</v>
+      </c>
+      <c r="C9">
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>152</v>
+      </c>
+      <c r="E9">
+        <v>168</v>
+      </c>
+      <c r="F9">
+        <v>154</v>
+      </c>
+      <c r="G9">
+        <v>151</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>38</v>
+      </c>
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>31</v>
+      </c>
+      <c r="U9">
+        <v>38</v>
+      </c>
+      <c r="V9">
+        <v>32</v>
+      </c>
+      <c r="W9">
+        <v>30</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="12"/>
+        <v>90.5</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="13"/>
+        <v>98.5</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="14"/>
+        <v>97.75</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="15"/>
+        <v>101.5</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="17"/>
+        <v>7.25</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="AQ9">
+        <v>7</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="19"/>
+        <v>198.8</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="20"/>
+        <v>184</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="21"/>
+        <v>186.1</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="22"/>
+        <v>209.8</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="23"/>
+        <v>-14.800000000000011</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="24"/>
+        <v>-12.700000000000017</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="BC9">
+        <v>7</v>
+      </c>
+      <c r="BD9">
+        <v>91</v>
+      </c>
+      <c r="BE9">
+        <v>100</v>
+      </c>
+      <c r="BF9">
+        <v>107</v>
+      </c>
+      <c r="BG9">
+        <v>84</v>
+      </c>
+      <c r="BH9">
+        <f t="shared" si="26"/>
+        <v>-9</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="27"/>
+        <v>-16</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="BK9">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="BL9">
+        <f t="shared" si="30"/>
+        <v>16</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="BO9">
+        <v>7</v>
+      </c>
+      <c r="BP9">
+        <v>195</v>
+      </c>
+      <c r="BQ9">
+        <v>206</v>
+      </c>
+      <c r="BR9">
+        <v>200</v>
+      </c>
+      <c r="BS9">
+        <v>221</v>
+      </c>
+      <c r="BT9">
+        <f t="shared" si="32"/>
+        <v>-11</v>
+      </c>
+      <c r="BU9">
+        <f t="shared" si="33"/>
+        <v>-5</v>
+      </c>
+      <c r="BV9">
+        <f t="shared" si="34"/>
+        <v>-26</v>
+      </c>
+      <c r="BW9">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="BX9">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="BY9">
+        <f t="shared" si="37"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>131</v>
+      </c>
+      <c r="E10">
+        <v>126</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
+      </c>
+      <c r="G10">
+        <v>124</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>44</v>
+      </c>
+      <c r="T10">
+        <v>40</v>
+      </c>
+      <c r="U10">
+        <v>41</v>
+      </c>
+      <c r="V10">
+        <v>24</v>
+      </c>
+      <c r="W10">
+        <v>28</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>8</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="13"/>
+        <v>55</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="14"/>
+        <v>61</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="15"/>
+        <v>54.25</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="18"/>
+        <v>-6.75</v>
+      </c>
+      <c r="AQ10">
+        <v>8</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="19"/>
+        <v>175</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="20"/>
+        <v>180.4</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="21"/>
+        <v>175</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="22"/>
+        <v>171.1</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="23"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="25"/>
+        <v>-3.9000000000000057</v>
+      </c>
+      <c r="BC10">
+        <v>8</v>
+      </c>
+      <c r="BD10">
+        <v>61</v>
+      </c>
+      <c r="BE10">
+        <v>63</v>
+      </c>
+      <c r="BF10">
+        <v>68</v>
+      </c>
+      <c r="BG10">
+        <v>69</v>
+      </c>
+      <c r="BH10">
+        <f t="shared" si="26"/>
+        <v>-2</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="27"/>
+        <v>-7</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="28"/>
+        <v>-8</v>
+      </c>
+      <c r="BK10">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="BL10">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="BM10">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="BO10">
+        <v>8</v>
+      </c>
+      <c r="BP10">
+        <v>171</v>
+      </c>
+      <c r="BQ10">
+        <v>190</v>
+      </c>
+      <c r="BR10">
+        <v>200</v>
+      </c>
+      <c r="BS10">
+        <v>201</v>
+      </c>
+      <c r="BT10">
+        <f t="shared" si="32"/>
+        <v>-19</v>
+      </c>
+      <c r="BU10">
+        <f t="shared" si="33"/>
+        <v>-29</v>
+      </c>
+      <c r="BV10">
+        <f t="shared" si="34"/>
+        <v>-30</v>
+      </c>
+      <c r="BW10">
+        <f t="shared" si="35"/>
+        <v>19</v>
+      </c>
+      <c r="BX10">
+        <f t="shared" si="36"/>
+        <v>29</v>
+      </c>
+      <c r="BY10">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>163</v>
+      </c>
+      <c r="C11">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>154</v>
+      </c>
+      <c r="F11">
+        <v>156</v>
+      </c>
+      <c r="G11">
+        <v>161</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>38</v>
+      </c>
+      <c r="S11">
+        <v>39</v>
+      </c>
+      <c r="T11">
+        <v>43</v>
+      </c>
+      <c r="U11">
+        <v>51</v>
+      </c>
+      <c r="V11">
+        <v>44</v>
+      </c>
+      <c r="W11">
+        <v>47</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AE11">
+        <v>9</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="12"/>
+        <v>96.5</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="13"/>
+        <v>83.75</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="14"/>
+        <v>77.75</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="15"/>
+        <v>64.75</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="16"/>
+        <v>-12.75</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="17"/>
+        <v>-18.75</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="18"/>
+        <v>-31.75</v>
+      </c>
+      <c r="AQ11">
+        <v>9</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="19"/>
+        <v>204.8</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="20"/>
+        <v>194.9</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="21"/>
+        <v>200.3</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="22"/>
+        <v>210.1</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="23"/>
+        <v>-9.9000000000000057</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="24"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="25"/>
+        <v>5.2999999999999829</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
+        <v>97</v>
+      </c>
+      <c r="BE11">
+        <v>92</v>
+      </c>
+      <c r="BF11">
+        <v>95</v>
+      </c>
+      <c r="BG11">
+        <v>86</v>
+      </c>
+      <c r="BH11">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="BK11">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="BL11">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="BM11">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+      <c r="BO11">
+        <v>9</v>
+      </c>
+      <c r="BP11">
+        <v>201</v>
+      </c>
+      <c r="BQ11">
+        <v>202</v>
+      </c>
+      <c r="BR11">
+        <v>200</v>
+      </c>
+      <c r="BS11">
+        <v>197</v>
+      </c>
+      <c r="BT11">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="BU11">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="BW11">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="BX11">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>161</v>
+      </c>
+      <c r="C12">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>153</v>
+      </c>
+      <c r="E12">
+        <v>160</v>
+      </c>
+      <c r="F12">
+        <v>161</v>
+      </c>
+      <c r="G12">
+        <v>153</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>38</v>
+      </c>
+      <c r="S12">
+        <v>39</v>
+      </c>
+      <c r="T12">
+        <v>43</v>
+      </c>
+      <c r="U12">
+        <v>50</v>
+      </c>
+      <c r="V12">
+        <v>55</v>
+      </c>
+      <c r="W12">
+        <v>43</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="12"/>
+        <v>94.5</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="13"/>
+        <v>84.75</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="14"/>
+        <v>77.75</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="15"/>
+        <v>72.5</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="16"/>
+        <v>-9.75</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="17"/>
+        <v>-16.75</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="18"/>
+        <v>-22</v>
+      </c>
+      <c r="AQ12">
+        <v>10</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="19"/>
+        <v>202.8</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="20"/>
+        <v>195.9</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="21"/>
+        <v>200.3</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="22"/>
+        <v>215</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="23"/>
+        <v>-6.9000000000000057</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="24"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="25"/>
+        <v>12.199999999999989</v>
+      </c>
+      <c r="BC12">
+        <v>10</v>
+      </c>
+      <c r="BD12">
+        <v>95</v>
+      </c>
+      <c r="BE12">
+        <v>98</v>
+      </c>
+      <c r="BF12">
+        <v>100</v>
+      </c>
+      <c r="BG12">
+        <v>96</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="26"/>
+        <v>-3</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="27"/>
+        <v>-5</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>10</v>
+      </c>
+      <c r="BP12">
+        <v>199</v>
+      </c>
+      <c r="BQ12">
+        <v>204</v>
+      </c>
+      <c r="BR12">
+        <v>202</v>
+      </c>
+      <c r="BS12">
+        <v>218</v>
+      </c>
+      <c r="BT12">
+        <f t="shared" si="32"/>
+        <v>-5</v>
+      </c>
+      <c r="BU12">
+        <f t="shared" si="33"/>
+        <v>-3</v>
+      </c>
+      <c r="BV12">
+        <f t="shared" si="34"/>
+        <v>-19</v>
+      </c>
+      <c r="BW12">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="BX12">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="BY12">
+        <f t="shared" si="37"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13">
+        <v>240</v>
+      </c>
+      <c r="D13">
+        <v>235</v>
+      </c>
+      <c r="E13">
+        <v>238</v>
+      </c>
+      <c r="F13">
+        <v>244</v>
+      </c>
+      <c r="G13">
+        <v>267</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>43</v>
+      </c>
+      <c r="T13">
+        <v>41</v>
+      </c>
+      <c r="U13">
+        <v>39</v>
+      </c>
+      <c r="V13">
+        <v>46</v>
+      </c>
+      <c r="W13">
+        <v>60</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
-      <c r="U5">
+      <c r="Y13">
         <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="V5">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="5"/>
-        <v>-7</v>
-      </c>
-      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>11</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="13"/>
+        <v>164.75</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="14"/>
+        <v>163.25</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="15"/>
+        <v>169.75</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="16"/>
+        <v>-15.25</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="17"/>
+        <v>-16.75</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="18"/>
+        <v>-10.25</v>
+      </c>
+      <c r="AQ13">
+        <v>11</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="19"/>
+        <v>294</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="20"/>
+        <v>287.3</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="21"/>
+        <v>280.10000000000002</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="22"/>
+        <v>280.89999999999998</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="23"/>
+        <v>-6.6999999999999886</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="24"/>
+        <v>-13.899999999999977</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="25"/>
+        <v>-13.100000000000023</v>
+      </c>
+      <c r="BC13">
+        <v>11</v>
+      </c>
+      <c r="BD13">
+        <v>180</v>
+      </c>
+      <c r="BE13">
+        <v>162</v>
+      </c>
+      <c r="BF13">
+        <v>162</v>
+      </c>
+      <c r="BG13">
+        <v>161</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="30"/>
+        <v>18</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="BO13">
+        <v>11</v>
+      </c>
+      <c r="BP13">
+        <v>290</v>
+      </c>
+      <c r="BQ13">
+        <v>313</v>
+      </c>
+      <c r="BR13">
+        <v>318</v>
+      </c>
+      <c r="BS13">
+        <v>319</v>
+      </c>
+      <c r="BT13">
+        <f t="shared" si="32"/>
+        <v>-23</v>
+      </c>
+      <c r="BU13">
+        <f t="shared" si="33"/>
+        <v>-28</v>
+      </c>
+      <c r="BV13">
+        <f t="shared" si="34"/>
+        <v>-29</v>
+      </c>
+      <c r="BW13">
+        <f t="shared" si="35"/>
+        <v>23</v>
+      </c>
+      <c r="BX13">
+        <f t="shared" si="36"/>
+        <v>28</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="37"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>194</v>
+      </c>
+      <c r="C14">
+        <v>187</v>
+      </c>
+      <c r="D14">
+        <v>186</v>
+      </c>
+      <c r="E14">
+        <v>179</v>
+      </c>
+      <c r="F14">
+        <v>189</v>
+      </c>
+      <c r="G14">
+        <v>186</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="X5">
+        <v>7</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="Y5">
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>32</v>
+      </c>
+      <c r="S14">
+        <v>28</v>
+      </c>
+      <c r="T14">
+        <v>27</v>
+      </c>
+      <c r="U14">
+        <v>24</v>
+      </c>
+      <c r="V14">
+        <v>33</v>
+      </c>
+      <c r="W14">
+        <v>31</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AE14">
+        <v>12</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="13"/>
+        <v>138</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="14"/>
+        <v>138.75</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="15"/>
+        <v>137</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ14">
+        <v>12</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="19"/>
+        <v>229.2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="20"/>
+        <v>217.8</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="21"/>
+        <v>215.7</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="22"/>
+        <v>205.4</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="23"/>
+        <v>-11.399999999999977</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="24"/>
+        <v>-13.5</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="25"/>
+        <v>-23.799999999999983</v>
+      </c>
+      <c r="BC14">
+        <v>12</v>
+      </c>
+      <c r="BD14">
+        <v>138</v>
+      </c>
+      <c r="BE14">
+        <v>120</v>
+      </c>
+      <c r="BF14">
+        <v>120</v>
+      </c>
+      <c r="BG14">
+        <v>133</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="30"/>
+        <v>18</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="BO14">
+        <v>12</v>
+      </c>
+      <c r="BP14">
+        <v>226</v>
+      </c>
+      <c r="BQ14">
+        <v>232</v>
+      </c>
+      <c r="BR14">
+        <v>240</v>
+      </c>
+      <c r="BS14">
+        <v>230</v>
+      </c>
+      <c r="BT14">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+      <c r="BU14">
+        <f t="shared" si="33"/>
+        <v>-14</v>
+      </c>
+      <c r="BV14">
+        <f t="shared" si="34"/>
+        <v>-4</v>
+      </c>
+      <c r="BW14">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="BX14">
+        <f t="shared" si="36"/>
+        <v>14</v>
+      </c>
+      <c r="BY14">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>163</v>
+      </c>
+      <c r="C15">
+        <v>153</v>
+      </c>
+      <c r="D15">
+        <v>158</v>
+      </c>
+      <c r="E15">
+        <v>170</v>
+      </c>
+      <c r="F15">
+        <v>154</v>
+      </c>
+      <c r="G15">
+        <v>157</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>175</v>
-      </c>
-      <c r="AC5">
-        <v>181</v>
-      </c>
-      <c r="AD5">
-        <v>183</v>
-      </c>
-      <c r="AE5">
-        <v>190</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="9"/>
-        <v>-6</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="10"/>
-        <v>-8</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="11"/>
-        <v>-15</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AM5">
-        <v>3</v>
-      </c>
-      <c r="AN5">
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
         <v>40</v>
       </c>
-      <c r="AO5">
-        <v>38</v>
-      </c>
-      <c r="AP5">
-        <v>38</v>
-      </c>
-      <c r="AQ5">
-        <v>42</v>
-      </c>
-      <c r="AR5">
-        <v>42</v>
-      </c>
-      <c r="AS5">
-        <v>33</v>
-      </c>
-      <c r="AT5">
-        <f>AN5-AO5</f>
-        <v>2</v>
-      </c>
-      <c r="AU5">
-        <f>AN5-AP5</f>
-        <v>2</v>
-      </c>
-      <c r="AV5">
-        <f>AN5-AQ5</f>
-        <v>-2</v>
-      </c>
-      <c r="AW5">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>158</v>
-      </c>
-      <c r="C6">
-        <v>144</v>
-      </c>
-      <c r="D6">
-        <v>146</v>
-      </c>
-      <c r="E6">
-        <v>143</v>
-      </c>
-      <c r="F6">
-        <v>144</v>
-      </c>
-      <c r="G6">
-        <v>151</v>
-      </c>
-      <c r="H6">
-        <f>B6-C6</f>
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <f>B6-D6</f>
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <f>B6-E6</f>
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>74</v>
-      </c>
-      <c r="Q6">
-        <v>84</v>
-      </c>
-      <c r="R6">
-        <v>93</v>
-      </c>
-      <c r="S6">
-        <v>96</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>-19</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="5"/>
-        <v>-22</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="AA6">
-        <v>4</v>
-      </c>
-      <c r="AB6">
-        <v>206</v>
-      </c>
-      <c r="AC6">
-        <v>188</v>
-      </c>
-      <c r="AD6">
-        <v>188</v>
-      </c>
-      <c r="AE6">
-        <v>192</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="AM6">
-        <v>4</v>
-      </c>
-      <c r="AN6">
-        <v>48</v>
-      </c>
-      <c r="AO6">
-        <v>38</v>
-      </c>
-      <c r="AP6">
-        <v>35</v>
-      </c>
-      <c r="AQ6">
-        <v>34</v>
-      </c>
-      <c r="AR6">
-        <v>55</v>
-      </c>
-      <c r="AS6">
-        <v>38</v>
-      </c>
-      <c r="AT6">
-        <f>AN6-AO6</f>
-        <v>10</v>
-      </c>
-      <c r="AU6">
-        <f>AN6-AP6</f>
-        <v>13</v>
-      </c>
-      <c r="AV6">
-        <f>AN6-AQ6</f>
-        <v>14</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="AX6">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="AY6">
-        <f t="shared" si="17"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>144</v>
-      </c>
-      <c r="C7">
-        <v>137</v>
-      </c>
-      <c r="D7">
-        <v>140</v>
-      </c>
-      <c r="E7">
-        <v>138</v>
-      </c>
-      <c r="F7">
-        <v>136</v>
-      </c>
-      <c r="G7">
-        <v>145</v>
-      </c>
-      <c r="H7">
-        <f>B7-C7</f>
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <f>B7-D7</f>
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <f>B7-E7</f>
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>74</v>
-      </c>
-      <c r="Q7">
-        <v>77</v>
-      </c>
-      <c r="R7">
-        <v>80</v>
-      </c>
-      <c r="S7">
-        <v>76</v>
-      </c>
-      <c r="T7">
+      <c r="S15">
+        <v>43</v>
+      </c>
+      <c r="T15">
+        <v>53</v>
+      </c>
+      <c r="U15">
+        <v>60</v>
+      </c>
+      <c r="V15">
+        <v>56</v>
+      </c>
+      <c r="W15">
+        <v>57</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
-      <c r="U7">
+      <c r="Y15">
         <f t="shared" si="4"/>
-        <v>-6</v>
-      </c>
-      <c r="V7">
+        <v>-13</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="W7">
+        <v>-20</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="AE15">
+        <v>13</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="13"/>
+        <v>77.75</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="14"/>
+        <v>65.25</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="16"/>
+        <v>-15.25</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="17"/>
+        <v>-27.75</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="18"/>
+        <v>-28</v>
+      </c>
+      <c r="AQ15">
+        <v>13</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="19"/>
+        <v>207</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="20"/>
+        <v>200.3</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="21"/>
+        <v>216.3</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="22"/>
+        <v>236</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="23"/>
+        <v>-6.6999999999999886</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="24"/>
+        <v>9.3000000000000114</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="BC15">
+        <v>13</v>
+      </c>
+      <c r="BD15">
+        <v>93</v>
+      </c>
+      <c r="BE15">
+        <v>88</v>
+      </c>
+      <c r="BF15">
+        <v>68</v>
+      </c>
+      <c r="BG15">
+        <v>66</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="28"/>
+        <v>27</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="31"/>
+        <v>27</v>
+      </c>
+      <c r="BO15">
+        <v>13</v>
+      </c>
+      <c r="BP15">
+        <v>203</v>
+      </c>
+      <c r="BQ15">
+        <v>207</v>
+      </c>
+      <c r="BR15">
+        <v>207</v>
+      </c>
+      <c r="BS15">
+        <v>215</v>
+      </c>
+      <c r="BT15">
+        <f t="shared" si="32"/>
+        <v>-4</v>
+      </c>
+      <c r="BU15">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="BV15">
+        <f t="shared" si="34"/>
+        <v>-12</v>
+      </c>
+      <c r="BW15">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="BX15">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" si="37"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>173</v>
+      </c>
+      <c r="C16">
+        <v>158</v>
+      </c>
+      <c r="D16">
+        <v>159</v>
+      </c>
+      <c r="E16">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>158</v>
+      </c>
+      <c r="G16">
+        <v>152</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="X7">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>22</v>
+      </c>
+      <c r="S16">
+        <v>37</v>
+      </c>
+      <c r="T16">
+        <v>34</v>
+      </c>
+      <c r="U16">
+        <v>35</v>
+      </c>
+      <c r="V16">
+        <v>30</v>
+      </c>
+      <c r="W16">
+        <v>30</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>-15</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AE16">
+        <v>14</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="12"/>
+        <v>134.5</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="13"/>
+        <v>93.25</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="14"/>
+        <v>99.5</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="15"/>
+        <v>100.75</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="16"/>
+        <v>-41.25</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="17"/>
+        <v>-35</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="18"/>
+        <v>-33.75</v>
+      </c>
+      <c r="AQ16">
+        <v>14</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="19"/>
+        <v>197.2</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="20"/>
+        <v>198.7</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="21"/>
+        <v>196.4</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="22"/>
+        <v>200.5</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="24"/>
+        <v>-0.79999999999998295</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="25"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="BC16">
+        <v>14</v>
+      </c>
+      <c r="BD16">
+        <v>134</v>
+      </c>
+      <c r="BE16">
+        <v>77</v>
+      </c>
+      <c r="BF16">
+        <v>108</v>
+      </c>
+      <c r="BG16">
+        <v>85</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="26"/>
+        <v>57</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="27"/>
+        <v>26</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" si="29"/>
+        <v>57</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="30"/>
+        <v>26</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="BO16">
+        <v>14</v>
+      </c>
+      <c r="BP16">
+        <v>195</v>
+      </c>
+      <c r="BQ16">
+        <v>210</v>
+      </c>
+      <c r="BR16">
+        <v>208</v>
+      </c>
+      <c r="BS16">
+        <v>213</v>
+      </c>
+      <c r="BT16">
+        <f t="shared" si="32"/>
+        <v>-15</v>
+      </c>
+      <c r="BU16">
+        <f t="shared" si="33"/>
+        <v>-13</v>
+      </c>
+      <c r="BV16">
+        <f t="shared" si="34"/>
+        <v>-18</v>
+      </c>
+      <c r="BW16">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="BX16">
+        <f t="shared" si="36"/>
+        <v>13</v>
+      </c>
+      <c r="BY16">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>151</v>
+      </c>
+      <c r="C17">
+        <v>146</v>
+      </c>
+      <c r="D17">
+        <v>145</v>
+      </c>
+      <c r="E17">
+        <v>149</v>
+      </c>
+      <c r="F17">
+        <v>151</v>
+      </c>
+      <c r="G17">
+        <v>152</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="Y7">
+      <c r="M17">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AA7">
-        <v>5</v>
-      </c>
-      <c r="AB7">
-        <v>184</v>
-      </c>
-      <c r="AC7">
-        <v>186</v>
-      </c>
-      <c r="AD7">
-        <v>186</v>
-      </c>
-      <c r="AE7">
-        <v>200</v>
-      </c>
-      <c r="AF7">
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17">
+        <v>38</v>
+      </c>
+      <c r="S17">
+        <v>39</v>
+      </c>
+      <c r="T17">
+        <v>39</v>
+      </c>
+      <c r="U17">
+        <v>41</v>
+      </c>
+      <c r="V17">
+        <v>54</v>
+      </c>
+      <c r="W17">
+        <v>38</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="9"/>
-        <v>-2</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="10"/>
-        <v>-2</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="11"/>
-        <v>-16</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="AM7">
-        <v>5</v>
-      </c>
-      <c r="AN7">
-        <v>40</v>
-      </c>
-      <c r="AO7">
-        <v>39</v>
-      </c>
-      <c r="AP7">
-        <v>45</v>
-      </c>
-      <c r="AQ7">
-        <v>43</v>
-      </c>
-      <c r="AR7">
-        <v>35</v>
-      </c>
-      <c r="AS7">
-        <v>39</v>
-      </c>
-      <c r="AT7">
-        <f>AN7-AO7</f>
         <v>1</v>
       </c>
-      <c r="AU7">
-        <f>AN7-AP7</f>
-        <v>-5</v>
-      </c>
-      <c r="AV7">
-        <f>AN7-AQ7</f>
-        <v>-3</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>149</v>
-      </c>
-      <c r="C8">
-        <v>144</v>
-      </c>
-      <c r="D8">
-        <v>143</v>
-      </c>
-      <c r="E8">
-        <v>139</v>
-      </c>
-      <c r="F8">
-        <v>137</v>
-      </c>
-      <c r="G8">
-        <v>152</v>
-      </c>
-      <c r="H8">
-        <f>B8-C8</f>
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <f>B8-D8</f>
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <f>B8-E8</f>
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>65</v>
-      </c>
-      <c r="Q8">
-        <v>73</v>
-      </c>
-      <c r="R8">
-        <v>76</v>
-      </c>
-      <c r="S8">
-        <v>80</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="3"/>
-        <v>-8</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>-11</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="5"/>
-        <v>-15</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="AA8">
-        <v>6</v>
-      </c>
-      <c r="AB8">
-        <v>197</v>
-      </c>
-      <c r="AC8">
-        <v>193</v>
-      </c>
-      <c r="AD8">
-        <v>189</v>
-      </c>
-      <c r="AE8">
-        <v>201</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="11"/>
-        <v>-4</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AM8">
-        <v>6</v>
-      </c>
-      <c r="AN8">
-        <v>48</v>
-      </c>
-      <c r="AO8">
-        <v>47</v>
-      </c>
-      <c r="AP8">
-        <v>46</v>
-      </c>
-      <c r="AQ8">
-        <v>48</v>
-      </c>
-      <c r="AR8">
-        <v>43</v>
-      </c>
-      <c r="AS8">
-        <v>46</v>
-      </c>
-      <c r="AT8">
-        <f>AN8-AO8</f>
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <f>AN8-AP8</f>
-        <v>2</v>
-      </c>
-      <c r="AV8">
-        <f>AN8-AQ8</f>
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>157</v>
-      </c>
-      <c r="C9">
-        <v>151</v>
-      </c>
-      <c r="D9">
-        <v>152</v>
-      </c>
-      <c r="E9">
-        <v>168</v>
-      </c>
-      <c r="F9">
-        <v>154</v>
-      </c>
-      <c r="G9">
-        <v>151</v>
-      </c>
-      <c r="H9">
-        <f>B9-C9</f>
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <f>B9-D9</f>
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <f>B9-E9</f>
-        <v>-11</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>91</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-      <c r="R9">
-        <v>107</v>
-      </c>
-      <c r="S9">
-        <v>84</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
-        <v>-9</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
-        <v>-16</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AA9">
-        <v>7</v>
-      </c>
-      <c r="AB9">
-        <v>195</v>
-      </c>
-      <c r="AC9">
-        <v>206</v>
-      </c>
-      <c r="AD9">
-        <v>200</v>
-      </c>
-      <c r="AE9">
-        <v>221</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="9"/>
-        <v>-11</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="10"/>
-        <v>-5</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="11"/>
-        <v>-26</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="14"/>
-        <v>26</v>
-      </c>
-      <c r="AM9">
-        <v>7</v>
-      </c>
-      <c r="AN9">
-        <v>38</v>
-      </c>
-      <c r="AO9">
-        <v>30</v>
-      </c>
-      <c r="AP9">
-        <v>31</v>
-      </c>
-      <c r="AQ9">
-        <v>38</v>
-      </c>
-      <c r="AR9">
-        <v>32</v>
-      </c>
-      <c r="AS9">
-        <v>30</v>
-      </c>
-      <c r="AT9">
-        <f>AN9-AO9</f>
-        <v>8</v>
-      </c>
-      <c r="AU9">
-        <f>AN9-AP9</f>
-        <v>7</v>
-      </c>
-      <c r="AV9">
-        <f>AN9-AQ9</f>
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="AY9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>131</v>
-      </c>
-      <c r="C10">
-        <v>132</v>
-      </c>
-      <c r="D10">
-        <v>131</v>
-      </c>
-      <c r="E10">
-        <v>126</v>
-      </c>
-      <c r="F10">
-        <v>120</v>
-      </c>
-      <c r="G10">
-        <v>124</v>
-      </c>
-      <c r="H10">
-        <f>B10-C10</f>
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <f>B10-D10</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>B10-E10</f>
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-      <c r="P10">
-        <v>61</v>
-      </c>
-      <c r="Q10">
-        <v>63</v>
-      </c>
-      <c r="R10">
-        <v>68</v>
-      </c>
-      <c r="S10">
-        <v>69</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="4"/>
-        <v>-7</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="5"/>
-        <v>-8</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AA10">
-        <v>8</v>
-      </c>
-      <c r="AB10">
-        <v>171</v>
-      </c>
-      <c r="AC10">
-        <v>190</v>
-      </c>
-      <c r="AD10">
-        <v>200</v>
-      </c>
-      <c r="AE10">
-        <v>201</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="9"/>
-        <v>-19</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="10"/>
-        <v>-29</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="11"/>
-        <v>-30</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="13"/>
-        <v>29</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="AM10">
-        <v>8</v>
-      </c>
-      <c r="AN10">
-        <v>40</v>
-      </c>
-      <c r="AO10">
-        <v>44</v>
-      </c>
-      <c r="AP10">
-        <v>40</v>
-      </c>
-      <c r="AQ10">
-        <v>41</v>
-      </c>
-      <c r="AR10">
-        <v>24</v>
-      </c>
-      <c r="AS10">
-        <v>28</v>
-      </c>
-      <c r="AT10">
-        <f>AN10-AO10</f>
-        <v>-4</v>
-      </c>
-      <c r="AU10">
-        <f>AN10-AP10</f>
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <f>AN10-AQ10</f>
-        <v>-1</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>163</v>
-      </c>
-      <c r="C11">
-        <v>152</v>
-      </c>
-      <c r="D11">
-        <v>153</v>
-      </c>
-      <c r="E11">
-        <v>154</v>
-      </c>
-      <c r="F11">
-        <v>156</v>
-      </c>
-      <c r="G11">
-        <v>161</v>
-      </c>
-      <c r="H11">
-        <f>B11-C11</f>
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <f>B11-D11</f>
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <f>B11-E11</f>
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="O11">
-        <v>9</v>
-      </c>
-      <c r="P11">
-        <v>97</v>
-      </c>
-      <c r="Q11">
-        <v>92</v>
-      </c>
-      <c r="R11">
-        <v>95</v>
-      </c>
-      <c r="S11">
-        <v>86</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="AA11">
-        <v>9</v>
-      </c>
-      <c r="AB11">
-        <v>201</v>
-      </c>
-      <c r="AC11">
-        <v>202</v>
-      </c>
-      <c r="AD11">
-        <v>200</v>
-      </c>
-      <c r="AE11">
-        <v>197</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="AG11">
+      <c r="AB17">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AH11">
+      <c r="AC17">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AI11">
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <v>15</v>
+      </c>
+      <c r="AF17">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ11">
+        <v>84.5</v>
+      </c>
+      <c r="AG17">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AK11">
+        <v>77.75</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AM11">
-        <v>9</v>
-      </c>
-      <c r="AN11">
-        <v>38</v>
-      </c>
-      <c r="AO11">
-        <v>39</v>
-      </c>
-      <c r="AP11">
-        <v>43</v>
-      </c>
-      <c r="AQ11">
-        <v>51</v>
-      </c>
-      <c r="AR11">
-        <v>44</v>
-      </c>
-      <c r="AS11">
-        <v>47</v>
-      </c>
-      <c r="AT11">
-        <f>AN11-AO11</f>
-        <v>-1</v>
-      </c>
-      <c r="AU11">
-        <f>AN11-AP11</f>
-        <v>-5</v>
-      </c>
-      <c r="AV11">
-        <f>AN11-AQ11</f>
-        <v>-13</v>
-      </c>
-      <c r="AW11">
+        <v>76.75</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX11">
+        <v>77.25</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="AY11">
+        <v>-6.75</v>
+      </c>
+      <c r="AK17">
         <f t="shared" si="17"/>
-        <v>13</v>
+        <v>-7.75</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="18"/>
+        <v>-7.25</v>
+      </c>
+      <c r="AQ17">
+        <v>15</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="19"/>
+        <v>192.8</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="20"/>
+        <v>188.9</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="21"/>
+        <v>187.9</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="22"/>
+        <v>194.1</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="23"/>
+        <v>-3.9000000000000057</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="24"/>
+        <v>-4.9000000000000057</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="25"/>
+        <v>1.2999999999999829</v>
+      </c>
+      <c r="BC17">
+        <v>15</v>
+      </c>
+      <c r="BD17">
+        <v>85</v>
+      </c>
+      <c r="BE17">
+        <v>74</v>
+      </c>
+      <c r="BF17">
+        <v>79</v>
+      </c>
+      <c r="BG17">
+        <v>85</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="BI17">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="BL17">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>15</v>
+      </c>
+      <c r="BP17">
+        <v>189</v>
+      </c>
+      <c r="BQ17">
+        <v>204</v>
+      </c>
+      <c r="BR17">
+        <v>205</v>
+      </c>
+      <c r="BS17">
+        <v>199</v>
+      </c>
+      <c r="BT17">
+        <f t="shared" si="32"/>
+        <v>-15</v>
+      </c>
+      <c r="BU17">
+        <f t="shared" si="33"/>
+        <v>-16</v>
+      </c>
+      <c r="BV17">
+        <f t="shared" si="34"/>
+        <v>-10</v>
+      </c>
+      <c r="BW17">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="BX17">
+        <f t="shared" si="36"/>
+        <v>16</v>
+      </c>
+      <c r="BY17">
+        <f t="shared" si="37"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>161</v>
-      </c>
-      <c r="C12">
-        <v>153</v>
-      </c>
-      <c r="D12">
-        <v>153</v>
-      </c>
-      <c r="E12">
-        <v>160</v>
-      </c>
-      <c r="F12">
-        <v>161</v>
-      </c>
-      <c r="G12">
-        <v>153</v>
-      </c>
-      <c r="H12">
-        <f>B12-C12</f>
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <f>B12-D12</f>
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <f>B12-E12</f>
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
-        <v>95</v>
-      </c>
-      <c r="Q12">
-        <v>98</v>
-      </c>
-      <c r="R12">
-        <v>100</v>
-      </c>
-      <c r="S12">
-        <v>96</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
-        <v>-5</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <v>10</v>
-      </c>
-      <c r="AB12">
-        <v>199</v>
-      </c>
-      <c r="AC12">
-        <v>204</v>
-      </c>
-      <c r="AD12">
-        <v>202</v>
-      </c>
-      <c r="AE12">
-        <v>218</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="9"/>
-        <v>-5</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="10"/>
-        <v>-3</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="11"/>
-        <v>-19</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="AM12">
-        <v>10</v>
-      </c>
-      <c r="AN12">
-        <v>38</v>
-      </c>
-      <c r="AO12">
-        <v>39</v>
-      </c>
-      <c r="AP12">
-        <v>43</v>
-      </c>
-      <c r="AQ12">
-        <v>50</v>
-      </c>
-      <c r="AR12">
-        <v>55</v>
-      </c>
-      <c r="AS12">
-        <v>43</v>
-      </c>
-      <c r="AT12">
-        <f>AN12-AO12</f>
-        <v>-1</v>
-      </c>
-      <c r="AU12">
-        <f>AN12-AP12</f>
-        <v>-5</v>
-      </c>
-      <c r="AV12">
-        <f>AN12-AQ12</f>
-        <v>-12</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>250</v>
-      </c>
-      <c r="C13">
-        <v>240</v>
-      </c>
-      <c r="D13">
-        <v>235</v>
-      </c>
-      <c r="E13">
-        <v>238</v>
-      </c>
-      <c r="F13">
-        <v>244</v>
-      </c>
-      <c r="G13">
-        <v>267</v>
-      </c>
-      <c r="H13">
-        <f>B13-C13</f>
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <f>B13-D13</f>
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <f>B13-E13</f>
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="O13">
-        <v>11</v>
-      </c>
-      <c r="P13">
-        <v>180</v>
-      </c>
-      <c r="Q13">
-        <v>162</v>
-      </c>
-      <c r="R13">
-        <v>162</v>
-      </c>
-      <c r="S13">
-        <v>161</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="AA13">
-        <v>11</v>
-      </c>
-      <c r="AB13">
-        <v>290</v>
-      </c>
-      <c r="AC13">
-        <v>313</v>
-      </c>
-      <c r="AD13">
-        <v>318</v>
-      </c>
-      <c r="AE13">
-        <v>319</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="9"/>
-        <v>-23</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="10"/>
-        <v>-28</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="11"/>
-        <v>-29</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="14"/>
-        <v>29</v>
-      </c>
-      <c r="AM13">
-        <v>11</v>
-      </c>
-      <c r="AN13">
-        <v>40</v>
-      </c>
-      <c r="AO13">
-        <v>43</v>
-      </c>
-      <c r="AP13">
-        <v>41</v>
-      </c>
-      <c r="AQ13">
-        <v>39</v>
-      </c>
-      <c r="AR13">
-        <v>46</v>
-      </c>
-      <c r="AS13">
-        <v>60</v>
-      </c>
-      <c r="AT13">
-        <f>AN13-AO13</f>
-        <v>-3</v>
-      </c>
-      <c r="AU13">
-        <f>AN13-AP13</f>
-        <v>-1</v>
-      </c>
-      <c r="AV13">
-        <f>AN13-AQ13</f>
-        <v>1</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>194</v>
-      </c>
-      <c r="C14">
-        <v>187</v>
-      </c>
-      <c r="D14">
-        <v>186</v>
-      </c>
-      <c r="E14">
-        <v>179</v>
-      </c>
-      <c r="F14">
-        <v>189</v>
-      </c>
-      <c r="G14">
-        <v>186</v>
-      </c>
-      <c r="H14">
-        <f>B14-C14</f>
-        <v>7</v>
-      </c>
-      <c r="I14">
-        <f>B14-D14</f>
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <f>B14-E14</f>
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="P14">
-        <v>138</v>
-      </c>
-      <c r="Q14">
-        <v>120</v>
-      </c>
-      <c r="R14">
-        <v>120</v>
-      </c>
-      <c r="S14">
-        <v>133</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AA14">
-        <v>12</v>
-      </c>
-      <c r="AB14">
-        <v>226</v>
-      </c>
-      <c r="AC14">
-        <v>232</v>
-      </c>
-      <c r="AD14">
-        <v>240</v>
-      </c>
-      <c r="AE14">
-        <v>230</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="9"/>
-        <v>-6</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="10"/>
-        <v>-14</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="11"/>
-        <v>-4</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AM14">
-        <v>12</v>
-      </c>
-      <c r="AN14">
-        <v>32</v>
-      </c>
-      <c r="AO14">
-        <v>28</v>
-      </c>
-      <c r="AP14">
-        <v>27</v>
-      </c>
-      <c r="AQ14">
-        <v>24</v>
-      </c>
-      <c r="AR14">
-        <v>33</v>
-      </c>
-      <c r="AS14">
-        <v>31</v>
-      </c>
-      <c r="AT14">
-        <f>AN14-AO14</f>
-        <v>4</v>
-      </c>
-      <c r="AU14">
-        <f>AN14-AP14</f>
-        <v>5</v>
-      </c>
-      <c r="AV14">
-        <f>AN14-AQ14</f>
-        <v>8</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>163</v>
-      </c>
-      <c r="C15">
-        <v>153</v>
-      </c>
-      <c r="D15">
-        <v>158</v>
-      </c>
-      <c r="E15">
-        <v>170</v>
-      </c>
-      <c r="F15">
-        <v>154</v>
-      </c>
-      <c r="G15">
-        <v>157</v>
-      </c>
-      <c r="H15">
-        <f>B15-C15</f>
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <f>B15-D15</f>
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <f>B15-E15</f>
-        <v>-7</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15">
-        <v>93</v>
-      </c>
-      <c r="Q15">
-        <v>88</v>
-      </c>
-      <c r="R15">
-        <v>68</v>
-      </c>
-      <c r="S15">
-        <v>66</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AA15">
-        <v>13</v>
-      </c>
-      <c r="AB15">
-        <v>203</v>
-      </c>
-      <c r="AC15">
-        <v>207</v>
-      </c>
-      <c r="AD15">
-        <v>207</v>
-      </c>
-      <c r="AE15">
-        <v>215</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="9"/>
-        <v>-4</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="10"/>
-        <v>-4</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="11"/>
-        <v>-12</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="AM15">
-        <v>13</v>
-      </c>
-      <c r="AN15">
-        <v>40</v>
-      </c>
-      <c r="AO15">
-        <v>43</v>
-      </c>
-      <c r="AP15">
-        <v>53</v>
-      </c>
-      <c r="AQ15">
-        <v>60</v>
-      </c>
-      <c r="AR15">
-        <v>56</v>
-      </c>
-      <c r="AS15">
-        <v>57</v>
-      </c>
-      <c r="AT15">
-        <f>AN15-AO15</f>
-        <v>-3</v>
-      </c>
-      <c r="AU15">
-        <f>AN15-AP15</f>
-        <v>-13</v>
-      </c>
-      <c r="AV15">
-        <f>AN15-AQ15</f>
-        <v>-20</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>173</v>
-      </c>
-      <c r="C16">
-        <v>158</v>
-      </c>
-      <c r="D16">
-        <v>159</v>
-      </c>
-      <c r="E16">
-        <v>162</v>
-      </c>
-      <c r="F16">
-        <v>158</v>
-      </c>
-      <c r="G16">
-        <v>152</v>
-      </c>
-      <c r="H16">
-        <f>B16-C16</f>
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <f>B16-D16</f>
-        <v>14</v>
-      </c>
-      <c r="J16">
-        <f>B16-E16</f>
-        <v>11</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O16">
-        <v>14</v>
-      </c>
-      <c r="P16">
-        <v>134</v>
-      </c>
-      <c r="Q16">
-        <v>77</v>
-      </c>
-      <c r="R16">
-        <v>108</v>
-      </c>
-      <c r="S16">
-        <v>85</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="AA16">
-        <v>14</v>
-      </c>
-      <c r="AB16">
-        <v>195</v>
-      </c>
-      <c r="AC16">
-        <v>210</v>
-      </c>
-      <c r="AD16">
-        <v>208</v>
-      </c>
-      <c r="AE16">
-        <v>213</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="9"/>
-        <v>-15</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="10"/>
-        <v>-13</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="11"/>
-        <v>-18</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="AM16">
-        <v>14</v>
-      </c>
-      <c r="AN16">
-        <v>22</v>
-      </c>
-      <c r="AO16">
-        <v>37</v>
-      </c>
-      <c r="AP16">
-        <v>34</v>
-      </c>
-      <c r="AQ16">
-        <v>35</v>
-      </c>
-      <c r="AR16">
-        <v>30</v>
-      </c>
-      <c r="AS16">
-        <v>30</v>
-      </c>
-      <c r="AT16">
-        <f>AN16-AO16</f>
-        <v>-15</v>
-      </c>
-      <c r="AU16">
-        <f>AN16-AP16</f>
-        <v>-12</v>
-      </c>
-      <c r="AV16">
-        <f>AN16-AQ16</f>
-        <v>-13</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="17"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>151</v>
-      </c>
-      <c r="C17">
-        <v>146</v>
-      </c>
-      <c r="D17">
-        <v>145</v>
-      </c>
-      <c r="E17">
-        <v>149</v>
-      </c>
-      <c r="F17">
-        <v>151</v>
-      </c>
-      <c r="G17">
-        <v>152</v>
-      </c>
-      <c r="H17">
-        <f>B17-C17</f>
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <f>B17-D17</f>
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <f>B17-E17</f>
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>15</v>
-      </c>
-      <c r="P17">
-        <v>85</v>
-      </c>
-      <c r="Q17">
-        <v>74</v>
-      </c>
-      <c r="R17">
-        <v>79</v>
-      </c>
-      <c r="S17">
-        <v>85</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>15</v>
-      </c>
-      <c r="AB17">
-        <v>189</v>
-      </c>
-      <c r="AC17">
-        <v>204</v>
-      </c>
-      <c r="AD17">
-        <v>205</v>
-      </c>
-      <c r="AE17">
-        <v>199</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="9"/>
-        <v>-15</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="10"/>
-        <v>-16</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="11"/>
-        <v>-10</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AM17">
-        <v>15</v>
-      </c>
-      <c r="AN17">
-        <v>38</v>
-      </c>
-      <c r="AO17">
-        <v>39</v>
-      </c>
-      <c r="AP17">
-        <v>39</v>
-      </c>
-      <c r="AQ17">
-        <v>41</v>
-      </c>
-      <c r="AR17">
-        <v>54</v>
-      </c>
-      <c r="AS17">
-        <v>38</v>
-      </c>
-      <c r="AT17">
-        <f>AN17-AO17</f>
-        <v>-1</v>
-      </c>
-      <c r="AU17">
-        <f>AN17-AP17</f>
-        <v>-1</v>
-      </c>
-      <c r="AV17">
-        <f>AN17-AQ17</f>
-        <v>-3</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AY17">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.3">
       <c r="K18">
         <f>AVERAGE(K3:K17)</f>
         <v>9.8666666666666671</v>
@@ -15133,45 +17984,70 @@
         <f>AVERAGE(M3:M17)</f>
         <v>9.0666666666666664</v>
       </c>
-      <c r="W18">
-        <f>AVERAGE(W3:W17)</f>
-        <v>12.2</v>
-      </c>
-      <c r="X18">
-        <f>AVERAGE(X3:X17)</f>
-        <v>12.266666666666667</v>
-      </c>
-      <c r="Y18">
-        <f>AVERAGE(Y3:Y17)</f>
-        <v>14.066666666666666</v>
-      </c>
-      <c r="AI18">
-        <f>AVERAGE(AI3:AI17)</f>
-        <v>11.733333333333333</v>
+      <c r="AA18">
+        <f>AVERAGE(AA3:AA17)</f>
+        <v>5.2</v>
+      </c>
+      <c r="AB18">
+        <f>AVERAGE(AB3:AB17)</f>
+        <v>6.5333333333333332</v>
+      </c>
+      <c r="AC18">
+        <f>AVERAGE(AC3:AC17)</f>
+        <v>7.8666666666666663</v>
       </c>
       <c r="AJ18">
         <f>AVERAGE(AJ3:AJ17)</f>
-        <v>12.8</v>
+        <v>-6.4</v>
       </c>
       <c r="AK18">
         <f>AVERAGE(AK3:AK17)</f>
-        <v>18.2</v>
+        <v>-6.5666666666666664</v>
+      </c>
+      <c r="AL18">
+        <f>AVERAGE(AL3:AL17)</f>
+        <v>-8.5333333333333332</v>
+      </c>
+      <c r="AV18">
+        <f>AVERAGE(AV3:AV17)</f>
+        <v>-7.9200000000000008</v>
       </c>
       <c r="AW18">
         <f>AVERAGE(AW3:AW17)</f>
-        <v>5.2</v>
+        <v>-9.2266666666666666</v>
       </c>
       <c r="AX18">
         <f>AVERAGE(AX3:AX17)</f>
-        <v>6.5333333333333332</v>
-      </c>
-      <c r="AY18">
-        <f>AVERAGE(AY3:AY17)</f>
-        <v>7.8666666666666663</v>
+        <v>-5.4933333333333376</v>
+      </c>
+      <c r="BK18">
+        <f>AVERAGE(BK3:BK17)</f>
+        <v>12.2</v>
+      </c>
+      <c r="BL18">
+        <f>AVERAGE(BL3:BL17)</f>
+        <v>12.266666666666667</v>
+      </c>
+      <c r="BM18">
+        <f>AVERAGE(BM3:BM17)</f>
+        <v>14.066666666666666</v>
+      </c>
+      <c r="BW18">
+        <f>AVERAGE(BW3:BW17)</f>
+        <v>11.733333333333333</v>
+      </c>
+      <c r="BX18">
+        <f>AVERAGE(BX3:BX17)</f>
+        <v>12.8</v>
+      </c>
+      <c r="BY18">
+        <f>AVERAGE(BY3:BY17)</f>
+        <v>18.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Timeseries-Testing/summary.xlsx
+++ b/Timeseries-Testing/summary.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R-code\Timeseries-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32CC914-AA47-48FF-AC9E-565D77ABEA1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509A7FE-A8B1-4FD5-B6B4-80FDBC2FB46B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13284" windowHeight="6540" xr2:uid="{E888DDFE-0BB1-4B4D-9BFD-E692A878E1C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="3" r:id="rId1"/>
+    <sheet name="new_summary2" sheetId="5" r:id="rId1"/>
     <sheet name="for_estimation" sheetId="2" r:id="rId2"/>
-    <sheet name="old_summary" sheetId="1" r:id="rId3"/>
+    <sheet name="summary" sheetId="3" r:id="rId3"/>
+    <sheet name="old_summary" sheetId="1" r:id="rId4"/>
+    <sheet name="new_summary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="45">
   <si>
     <t>Peak date</t>
   </si>
@@ -136,9 +138,6 @@
     <t>SG fitting window size</t>
   </si>
   <si>
-    <t>2016-09-15'</t>
-  </si>
-  <si>
     <t>2016-09-01'</t>
   </si>
   <si>
@@ -161,6 +160,15 @@
   </si>
   <si>
     <t>2017-04-01'</t>
+  </si>
+  <si>
+    <t>planting date</t>
+  </si>
+  <si>
+    <t>harvest date</t>
+  </si>
+  <si>
+    <t>2016-08-01'</t>
   </si>
 </sst>
 </file>
@@ -204,13 +212,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12501,11 +12516,2764 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE1DDF-5479-48DB-8FBC-A384E1A8F76B}">
+  <dimension ref="A1:AC38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="15.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="5"/>
+    <col min="18" max="18" width="14.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.77734375" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5">
+        <v>123</v>
+      </c>
+      <c r="D3" s="5">
+        <v>115</v>
+      </c>
+      <c r="E3" s="5">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <f>C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>D3-B3</f>
+        <v>-8</v>
+      </c>
+      <c r="H3">
+        <f>E3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>ABS(F3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>ABS(G3)</f>
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <f>ABS(H3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>48</v>
+      </c>
+      <c r="R3" s="5">
+        <v>40</v>
+      </c>
+      <c r="S3" s="5">
+        <v>36</v>
+      </c>
+      <c r="T3">
+        <f>Q3-P3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>R3-P3</f>
+        <v>-8</v>
+      </c>
+      <c r="V3">
+        <f>S3-P3</f>
+        <v>-12</v>
+      </c>
+      <c r="W3">
+        <f>ABS(T3)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>ABS(U3)</f>
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <f>ABS(V3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <v>123</v>
+      </c>
+      <c r="D5" s="5">
+        <v>131</v>
+      </c>
+      <c r="E5" s="5">
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F17" si="0">C5-B5</f>
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G17" si="1">D5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H17" si="2">E5-B5</f>
+        <v>-8</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:K17" si="3">ABS(F5)</f>
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>44</v>
+      </c>
+      <c r="R5" s="5">
+        <v>40</v>
+      </c>
+      <c r="S5" s="5">
+        <v>36</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T17" si="4">Q5-P5</f>
+        <v>-4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U17" si="5">R5-P5</f>
+        <v>-8</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V17" si="6">S5-P5</f>
+        <v>-12</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:Y17" si="7">ABS(T5)</f>
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>147</v>
+      </c>
+      <c r="C6" s="5">
+        <v>139</v>
+      </c>
+      <c r="D6" s="5">
+        <v>147</v>
+      </c>
+      <c r="E6" s="5">
+        <v>139</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>48</v>
+      </c>
+      <c r="R6" s="5">
+        <v>42</v>
+      </c>
+      <c r="S6" s="5">
+        <v>32</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>-16</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>147</v>
+      </c>
+      <c r="C7" s="5">
+        <v>139</v>
+      </c>
+      <c r="D7" s="5">
+        <v>139</v>
+      </c>
+      <c r="E7" s="5">
+        <v>131</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>48</v>
+      </c>
+      <c r="R7" s="5">
+        <v>40</v>
+      </c>
+      <c r="S7" s="5">
+        <v>32</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>147</v>
+      </c>
+      <c r="C8" s="5">
+        <v>139</v>
+      </c>
+      <c r="D8" s="5">
+        <v>131</v>
+      </c>
+      <c r="E8" s="5">
+        <v>139</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>48</v>
+      </c>
+      <c r="R8" s="5">
+        <v>38</v>
+      </c>
+      <c r="S8" s="5">
+        <v>36</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>-12</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>153</v>
+      </c>
+      <c r="C9" s="5">
+        <v>153</v>
+      </c>
+      <c r="D9" s="5">
+        <v>147</v>
+      </c>
+      <c r="E9" s="5">
+        <v>153</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>35</v>
+      </c>
+      <c r="R9" s="5">
+        <v>37</v>
+      </c>
+      <c r="S9" s="5">
+        <v>31</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>-15</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>D14-B14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <f>AVERAGE(F3:F17)</f>
+        <v>-2.4615384615384617</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(G3:G17)</f>
+        <v>-2.9230769230769229</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(H3:H17)</f>
+        <v>-3.6363636363636362</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(I3:I17)</f>
+        <v>2.4615384615384617</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="8">AVERAGE(J3:J17)</f>
+        <v>2.9230769230769229</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:Y18" si="9">AVERAGE(T3:T17)</f>
+        <v>-1.7692307692307692</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>-4.384615384615385</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
+        <v>-8.2727272727272734</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="9"/>
+        <v>4.384615384615385</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="9"/>
+        <v>8.2727272727272734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f>B3+1.1*P3</f>
+        <v>175.8</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>C3+1.1*Q3</f>
+        <v>175.8</v>
+      </c>
+      <c r="R22" s="5">
+        <f>D3+1.1*R3</f>
+        <v>159</v>
+      </c>
+      <c r="S22" s="5">
+        <f>E3+1.1*S3</f>
+        <v>162.6</v>
+      </c>
+      <c r="T22">
+        <f>Q22-P22</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>R22-P22</f>
+        <v>-16.800000000000011</v>
+      </c>
+      <c r="V22">
+        <f>S22-P22</f>
+        <v>-13.200000000000017</v>
+      </c>
+      <c r="W22">
+        <f>ABS(T22)</f>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:Y22" si="10">ABS(U22)</f>
+        <v>16.800000000000011</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="10"/>
+        <v>13.200000000000017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f>B3-1.75*P3</f>
+        <v>39</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C3-1.75*Q3</f>
+        <v>39</v>
+      </c>
+      <c r="D23" s="5">
+        <f>D3-1.75*R3</f>
+        <v>45</v>
+      </c>
+      <c r="E23" s="5">
+        <f>E3-1.75*S3</f>
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <f>C23-B23</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>D23-B23</f>
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <f>E23-B23</f>
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <f>ABS(F23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:K23" si="11">ABS(G23)</f>
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:S36" si="12">B5+1.1*P5</f>
+        <v>183.8</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="12"/>
+        <v>171.4</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="12"/>
+        <v>162.6</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24:T36" si="13">Q24-P24</f>
+        <v>-12.400000000000006</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:U36" si="14">R24-P24</f>
+        <v>-8.8000000000000114</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ref="V24:V36" si="15">S24-P24</f>
+        <v>-21.200000000000017</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:Y36" si="16">ABS(T24)</f>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="16"/>
+        <v>8.8000000000000114</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="16"/>
+        <v>21.200000000000017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:E37" si="17">B5-1.75*P5</f>
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F37" si="18">C25-B25</f>
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G37" si="19">D25-B25</f>
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H37" si="20">E25-B25</f>
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:K38" si="21">ABS(F25)</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="12"/>
+        <v>199.8</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="12"/>
+        <v>191.8</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="12"/>
+        <v>193.2</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="12"/>
+        <v>174.2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="13"/>
+        <v>-8</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="14"/>
+        <v>-6.6000000000000227</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="15"/>
+        <v>-25.600000000000023</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>6.6000000000000227</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="16"/>
+        <v>25.600000000000023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="17"/>
+        <v>73.5</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="17"/>
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="18"/>
+        <v>-8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="19"/>
+        <v>10.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="21"/>
+        <v>10.5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="12"/>
+        <v>208.60000000000002</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="12"/>
+        <v>191.8</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="12"/>
+        <v>166.2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="13"/>
+        <v>-16.800000000000011</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="14"/>
+        <v>-25.600000000000023</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="15"/>
+        <v>-42.400000000000034</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="16"/>
+        <v>16.800000000000011</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>25.600000000000023</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="16"/>
+        <v>42.400000000000034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="21"/>
+        <v>26</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="12"/>
+        <v>199.8</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="12"/>
+        <v>191.8</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="12"/>
+        <v>172.8</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="12"/>
+        <v>178.6</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="13"/>
+        <v>-8</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="14"/>
+        <v>-27</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="15"/>
+        <v>-21.200000000000017</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="16"/>
+        <v>21.200000000000017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="17"/>
+        <v>64.5</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="18"/>
+        <v>-8</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="12"/>
+        <v>203.6</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="12"/>
+        <v>191.5</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="12"/>
+        <v>187.7</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="12"/>
+        <v>187.1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="13"/>
+        <v>-12.099999999999994</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="14"/>
+        <v>-15.900000000000006</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="15"/>
+        <v>-16.5</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="16"/>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="16"/>
+        <v>15.900000000000006</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="16"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="17"/>
+        <v>72.5</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="17"/>
+        <v>91.75</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="17"/>
+        <v>82.25</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="17"/>
+        <v>98.75</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="18"/>
+        <v>19.25</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="19"/>
+        <v>9.75</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="20"/>
+        <v>26.25</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="21"/>
+        <v>19.25</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="21"/>
+        <v>9.75</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="21"/>
+        <v>26.25</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:Q36" si="22">B12+1.1*P12</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>15</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37:Y37" si="23">AVERAGE(T22:T36)</f>
+        <v>-4.4076923076923089</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="23"/>
+        <v>-7.7461538461538515</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="23"/>
+        <v>-12.736363636363647</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="23"/>
+        <v>4.4076923076923089</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="23"/>
+        <v>7.7461538461538515</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="23"/>
+        <v>12.736363636363647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f>AVERAGE(F23:F37)</f>
+        <v>0.63461538461538458</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(G23:G37)</f>
+        <v>4.75</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(H23:H37)</f>
+        <v>10.840909090909092</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="21"/>
+        <v>0.63461538461538458</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="21"/>
+        <v>4.75</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE(K23:K37)</f>
+        <v>10.840909090909092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB65157-03D1-447B-92E0-3948812A428A}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140</v>
+      </c>
+      <c r="D4" s="1">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1">
+        <v>190</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>160</v>
+      </c>
+      <c r="D5" s="1">
+        <v>140</v>
+      </c>
+      <c r="E5" s="1">
+        <v>210</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1">
+        <v>140</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>170</v>
+      </c>
+      <c r="D8" s="1">
+        <v>150</v>
+      </c>
+      <c r="E8" s="1">
+        <v>210</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>140</v>
+      </c>
+      <c r="D9" s="1">
+        <v>130</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>170</v>
+      </c>
+      <c r="D11" s="1">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1">
+        <v>220</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1">
+        <v>280</v>
+      </c>
+      <c r="D12" s="1">
+        <v>210</v>
+      </c>
+      <c r="E12" s="1">
+        <v>350</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+      <c r="D13" s="1">
+        <v>180</v>
+      </c>
+      <c r="E13" s="1">
+        <v>250</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1">
+        <v>180</v>
+      </c>
+      <c r="D14" s="1">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1">
+        <v>220</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1">
+        <v>160</v>
+      </c>
+      <c r="E15" s="1">
+        <v>240</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A31560A-FA29-41C6-BE88-BA7066592A27}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12708,27 +15476,27 @@
         <v>132</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F4:F17" si="0">C5-B5</f>
+        <f t="shared" ref="F5:F17" si="0">C5-B5</f>
         <v>15</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G4:G17" si="1">D5-B5</f>
+        <f t="shared" ref="G5:G17" si="1">D5-B5</f>
         <v>9</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H4:H17" si="2">E5-B5</f>
+        <f t="shared" ref="H5:H17" si="2">E5-B5</f>
         <v>9</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I4:I17" si="3">ABS(F5)</f>
+        <f t="shared" ref="I5:I17" si="3">ABS(F5)</f>
         <v>15</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J4:J17" si="4">ABS(G5)</f>
+        <f t="shared" ref="J5:J17" si="4">ABS(G5)</f>
         <v>9</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K4:K17" si="5">ABS(H5)</f>
+        <f t="shared" ref="K5:K17" si="5">ABS(H5)</f>
         <v>9</v>
       </c>
       <c r="O5">
@@ -12747,27 +15515,27 @@
         <v>32</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T4:T17" si="6">Q5-P5</f>
+        <f t="shared" ref="T5:T17" si="6">Q5-P5</f>
         <v>-12</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U4:U17" si="7">R5-P5</f>
+        <f t="shared" ref="U5:U17" si="7">R5-P5</f>
         <v>-8</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V4:V17" si="8">S5-P5</f>
+        <f t="shared" ref="V5:V17" si="8">S5-P5</f>
         <v>-16</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W4:W18" si="9">ABS(T5)</f>
+        <f t="shared" ref="W5:W17" si="9">ABS(T5)</f>
         <v>12</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X4:X18" si="10">ABS(U5)</f>
+        <f t="shared" ref="X5:X17" si="10">ABS(U5)</f>
         <v>8</v>
       </c>
       <c r="Y5">
-        <f t="shared" ref="Y4:Y17" si="11">ABS(V5)</f>
+        <f t="shared" ref="Y5:Y17" si="11">ABS(V5)</f>
         <v>16</v>
       </c>
     </row>
@@ -13175,80 +15943,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>177</v>
-      </c>
-      <c r="C11">
-        <v>159</v>
-      </c>
-      <c r="D11">
-        <v>149</v>
-      </c>
-      <c r="E11">
-        <v>156</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>-28</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>-21</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
       <c r="O11">
         <v>9</v>
-      </c>
-      <c r="P11">
-        <v>70</v>
-      </c>
-      <c r="Q11">
-        <v>46</v>
-      </c>
-      <c r="R11">
-        <v>37</v>
-      </c>
-      <c r="S11">
-        <v>40</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="6"/>
-        <v>-24</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="7"/>
-        <v>-33</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="8"/>
-        <v>-30</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="10"/>
-        <v>33</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="11"/>
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -13690,51 +16386,1286 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="F18">
         <f>AVERAGE(F3:F17)</f>
-        <v>1.3571428571428572</v>
+        <v>2.8461538461538463</v>
       </c>
       <c r="G18">
         <f>AVERAGE(G3:G17)</f>
-        <v>-4.3571428571428568</v>
+        <v>-2.5384615384615383</v>
       </c>
       <c r="H18">
         <f>AVERAGE(H3:H17)</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="I18">
         <f>AVERAGE(I3:I17)</f>
-        <v>8.6428571428571423</v>
+        <v>7.9230769230769234</v>
       </c>
       <c r="J18">
         <f t="shared" ref="J18:K18" si="12">AVERAGE(J3:J17)</f>
-        <v>8.9285714285714288</v>
+        <v>7.4615384615384617</v>
       </c>
       <c r="K18">
         <f t="shared" si="12"/>
-        <v>7.916666666666667</v>
+        <v>6.7272727272727275</v>
       </c>
       <c r="T18">
-        <f>AVERAGE(T3:T17)</f>
-        <v>-13.142857142857142</v>
+        <f t="shared" ref="T18:Y18" si="13">AVERAGE(T3:T17)</f>
+        <v>-12.307692307692308</v>
       </c>
       <c r="U18">
-        <f>AVERAGE(U3:U17)</f>
-        <v>-7.7857142857142856</v>
+        <f t="shared" si="13"/>
+        <v>-5.8461538461538458</v>
       </c>
       <c r="V18">
-        <f>AVERAGE(V3:V17)</f>
-        <v>-15.583333333333334</v>
+        <f t="shared" si="13"/>
+        <v>-14.272727272727273</v>
       </c>
       <c r="W18">
-        <f>AVERAGE(W3:W17)</f>
-        <v>13.142857142857142</v>
+        <f t="shared" si="13"/>
+        <v>12.307692307692308</v>
       </c>
       <c r="X18">
-        <f>AVERAGE(X3:X17)</f>
-        <v>10.357142857142858</v>
+        <f t="shared" si="13"/>
+        <v>8.615384615384615</v>
       </c>
       <c r="Y18">
-        <f>AVERAGE(Y3:Y17)</f>
-        <v>15.583333333333334</v>
+        <f t="shared" si="13"/>
+        <v>14.272727272727273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f>B3+1.1*P3</f>
+        <v>167.8</v>
+      </c>
+      <c r="Q22">
+        <f>C3+1.1*Q3</f>
+        <v>160.5</v>
+      </c>
+      <c r="R22">
+        <f>D3+1.1*R3</f>
+        <v>162.9</v>
+      </c>
+      <c r="S22">
+        <f>E3+1.1*S3</f>
+        <v>159.5</v>
+      </c>
+      <c r="T22">
+        <f>Q22-P22</f>
+        <v>-7.3000000000000114</v>
+      </c>
+      <c r="U22">
+        <f>R22-P22</f>
+        <v>-4.9000000000000057</v>
+      </c>
+      <c r="V22">
+        <f>S22-P22</f>
+        <v>-8.3000000000000114</v>
+      </c>
+      <c r="W22">
+        <f>ABS(T22)</f>
+        <v>7.3000000000000114</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:Y22" si="14">ABS(U22)</f>
+        <v>4.9000000000000057</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="14"/>
+        <v>8.3000000000000114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f>B3-1.75*P3</f>
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <f>C3-1.75*Q3</f>
+        <v>60.75</v>
+      </c>
+      <c r="D23">
+        <f>D3-1.75*R3</f>
+        <v>51.75</v>
+      </c>
+      <c r="E23">
+        <f>E3-1.75*S3</f>
+        <v>59.75</v>
+      </c>
+      <c r="F23">
+        <f>C23-B23</f>
+        <v>29.75</v>
+      </c>
+      <c r="G23">
+        <f>D23-B23</f>
+        <v>20.75</v>
+      </c>
+      <c r="H23">
+        <f>E23-B23</f>
+        <v>28.75</v>
+      </c>
+      <c r="I23">
+        <f>ABS(F23)</f>
+        <v>29.75</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:K23" si="15">ABS(G23)</f>
+        <v>20.75</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="15"/>
+        <v>28.75</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:Q24" si="16">B5+1.1*P5</f>
+        <v>175.8</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="16"/>
+        <v>177.6</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ref="R24:R36" si="17">D5+1.1*R5</f>
+        <v>176</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S24:S36" si="18">E5+1.1*S5</f>
+        <v>167.2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24:T36" si="19">Q24-P24</f>
+        <v>1.7999999999999829</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:U36" si="20">R24-P24</f>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ref="V24:V36" si="21">S24-P24</f>
+        <v>-8.6000000000000227</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W36" si="22">ABS(T24)</f>
+        <v>1.7999999999999829</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X36" si="23">ABS(U24)</f>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ref="Y24:Y36" si="24">ABS(V24)</f>
+        <v>8.6000000000000227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B37" si="25">B5-1.75*P5</f>
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C37" si="26">C5-1.75*Q5</f>
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D37" si="27">D5-1.75*R5</f>
+        <v>62</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E37" si="28">E5-1.75*S5</f>
+        <v>76</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F37" si="29">C25-B25</f>
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G37" si="30">D25-B25</f>
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H37" si="31">E25-B25</f>
+        <v>37</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I38" si="32">ABS(F25)</f>
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J38" si="33">ABS(G25)</f>
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K37" si="34">ABS(H25)</f>
+        <v>37</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:Q25" si="35">B6+1.1*P6</f>
+        <v>199.8</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="35"/>
+        <v>173.7</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="17"/>
+        <v>198.2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="18"/>
+        <v>169.5</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="19"/>
+        <v>-26.100000000000023</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="20"/>
+        <v>-1.6000000000000227</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="21"/>
+        <v>-30.300000000000011</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="22"/>
+        <v>26.100000000000023</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="23"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="24"/>
+        <v>30.300000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="25"/>
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="26"/>
+        <v>96.75</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="27"/>
+        <v>78.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="28"/>
+        <v>98.25</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="29"/>
+        <v>33.75</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="30"/>
+        <v>15.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="31"/>
+        <v>35.25</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="32"/>
+        <v>33.75</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="33"/>
+        <v>15.5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="34"/>
+        <v>35.25</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:Q26" si="36">B7+1.1*P7</f>
+        <v>208.60000000000002</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="36"/>
+        <v>180.7</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="17"/>
+        <v>192.1</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="18"/>
+        <v>187.9</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="19"/>
+        <v>-27.900000000000034</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="20"/>
+        <v>-16.500000000000028</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="21"/>
+        <v>-20.700000000000017</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="22"/>
+        <v>27.900000000000034</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="23"/>
+        <v>16.500000000000028</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="24"/>
+        <v>20.700000000000017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="26"/>
+        <v>75.25</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="27"/>
+        <v>75.25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="28"/>
+        <v>76.75</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="29"/>
+        <v>26.25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="30"/>
+        <v>26.25</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="31"/>
+        <v>27.75</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="32"/>
+        <v>26.25</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="33"/>
+        <v>26.25</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="34"/>
+        <v>27.75</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:Q27" si="37">B8+1.1*P8</f>
+        <v>183.8</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="37"/>
+        <v>183.5</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="17"/>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="18"/>
+        <v>180.4</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="19"/>
+        <v>-0.30000000000001137</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="20"/>
+        <v>-37.5</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="21"/>
+        <v>-3.4000000000000057</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="22"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="23"/>
+        <v>37.5</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="24"/>
+        <v>3.4000000000000057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="25"/>
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="26"/>
+        <v>83.75</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="27"/>
+        <v>23.75</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="28"/>
+        <v>83.5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="29"/>
+        <v>36.75</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="30"/>
+        <v>-23.25</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="31"/>
+        <v>36.5</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="32"/>
+        <v>36.75</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="33"/>
+        <v>23.25</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="34"/>
+        <v>36.5</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:Q28" si="38">B9+1.1*P9</f>
+        <v>211.6</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="38"/>
+        <v>193.3</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="17"/>
+        <v>196.8</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="18"/>
+        <v>187.1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="19"/>
+        <v>-18.299999999999983</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="20"/>
+        <v>-14.799999999999983</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="21"/>
+        <v>-24.5</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="22"/>
+        <v>18.299999999999983</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="23"/>
+        <v>14.799999999999983</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="24"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="25"/>
+        <v>80.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="26"/>
+        <v>99.25</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="27"/>
+        <v>88.5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="28"/>
+        <v>98.75</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="29"/>
+        <v>18.75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="31"/>
+        <v>18.25</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="32"/>
+        <v>18.75</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="34"/>
+        <v>18.25</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:Q29" si="39">B10+1.1*P10</f>
+        <v>183.8</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="39"/>
+        <v>183.2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="17"/>
+        <v>165.5</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="18"/>
+        <v>185.3</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="19"/>
+        <v>-0.60000000000002274</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="20"/>
+        <v>-18.300000000000011</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="22"/>
+        <v>0.60000000000002274</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="23"/>
+        <v>18.300000000000011</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="24"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="25"/>
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="26"/>
+        <v>63.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="27"/>
+        <v>65.75</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="28"/>
+        <v>62.75</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="29"/>
+        <v>16.5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="30"/>
+        <v>18.75</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="31"/>
+        <v>15.75</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="32"/>
+        <v>16.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="33"/>
+        <v>18.75</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="34"/>
+        <v>15.75</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:Q31" si="40">B12+1.1*P12</f>
+        <v>202.1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="40"/>
+        <v>193.6</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="17"/>
+        <v>194.8</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="18"/>
+        <v>198.7</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="19"/>
+        <v>-8.5</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="20"/>
+        <v>-7.2999999999999829</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="21"/>
+        <v>-3.4000000000000057</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="22"/>
+        <v>8.5</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="23"/>
+        <v>7.2999999999999829</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="24"/>
+        <v>3.4000000000000057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="25"/>
+        <v>85.25</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="26"/>
+        <v>91</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="27"/>
+        <v>86.5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="28"/>
+        <v>93.25</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="29"/>
+        <v>5.75</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="30"/>
+        <v>1.25</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="32"/>
+        <v>5.75</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="33"/>
+        <v>1.25</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32:Q32" si="41">B13+1.1*P13</f>
+        <v>293.8</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="41"/>
+        <v>280.10000000000002</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="17"/>
+        <v>275</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="19"/>
+        <v>-13.699999999999989</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="20"/>
+        <v>-18.800000000000011</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="22"/>
+        <v>13.699999999999989</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="23"/>
+        <v>18.800000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="25"/>
+        <v>157</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="26"/>
+        <v>163.25</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="27"/>
+        <v>161</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="29"/>
+        <v>6.25</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="32"/>
+        <v>6.25</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:Q33" si="42">B14+1.1*P14</f>
+        <v>226.8</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="42"/>
+        <v>213.7</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="17"/>
+        <v>235.6</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="19"/>
+        <v>-13.100000000000023</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="20"/>
+        <v>8.7999999999999829</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="22"/>
+        <v>13.100000000000023</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="23"/>
+        <v>8.7999999999999829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="25"/>
+        <v>118.5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="26"/>
+        <v>136.75</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="27"/>
+        <v>104.5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="29"/>
+        <v>18.25</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="30"/>
+        <v>-14</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="32"/>
+        <v>18.25</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:Q34" si="43">B15+1.1*P15</f>
+        <v>212.4</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="43"/>
+        <v>208.8</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="17"/>
+        <v>218.9</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="18"/>
+        <v>200.5</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="19"/>
+        <v>-3.5999999999999943</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="20"/>
+        <v>6.5</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="21"/>
+        <v>-11.900000000000006</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="22"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="23"/>
+        <v>6.5</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="24"/>
+        <v>11.900000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="25"/>
+        <v>58.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="26"/>
+        <v>100.5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="27"/>
+        <v>79.25</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="28"/>
+        <v>100.75</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="29"/>
+        <v>42</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="30"/>
+        <v>20.75</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="31"/>
+        <v>42.25</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="32"/>
+        <v>42</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="33"/>
+        <v>20.75</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="34"/>
+        <v>42.25</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P35:Q35" si="44">B16+1.1*P16</f>
+        <v>211.6</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="44"/>
+        <v>221.2</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="17"/>
+        <v>223.60000000000002</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="18"/>
+        <v>203.6</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="19"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="20"/>
+        <v>12.000000000000028</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="21"/>
+        <v>-8</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="22"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="23"/>
+        <v>12.000000000000028</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="25"/>
+        <v>80.5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="26"/>
+        <v>101.5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="27"/>
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="28"/>
+        <v>101</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="29"/>
+        <v>21</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="30"/>
+        <v>-16.5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="31"/>
+        <v>20.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="32"/>
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="33"/>
+        <v>16.5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="34"/>
+        <v>20.5</v>
+      </c>
+      <c r="O36">
+        <v>15</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ref="P36:Q36" si="45">B17+1.1*P17</f>
+        <v>212.4</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="45"/>
+        <v>181.4</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="17"/>
+        <v>188</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="18"/>
+        <v>177.3</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="19"/>
+        <v>-31</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="20"/>
+        <v>-24.400000000000006</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="21"/>
+        <v>-35.099999999999994</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="22"/>
+        <v>31</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="23"/>
+        <v>24.400000000000006</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="24"/>
+        <v>35.099999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="25"/>
+        <v>58.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="26"/>
+        <v>84.5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="27"/>
+        <v>74</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="28"/>
+        <v>83.25</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="29"/>
+        <v>26</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="30"/>
+        <v>15.5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="31"/>
+        <v>24.75</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="32"/>
+        <v>26</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="33"/>
+        <v>15.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="34"/>
+        <v>24.75</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37:Y37" si="46">AVERAGE(T22:T36)</f>
+        <v>-10.692307692307701</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="46"/>
+        <v>-8.9692307692307729</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="46"/>
+        <v>-13.881818181818188</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="46"/>
+        <v>12.446153846153852</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="46"/>
+        <v>13.200000000000005</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="46"/>
+        <v>14.154545454545461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f>AVERAGE(F23:F37)</f>
+        <v>24.384615384615383</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(G23:G37)</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(H23:H37)</f>
+        <v>26.795454545454547</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="32"/>
+        <v>24.384615384615383</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="33"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE(K23:K37)</f>
+        <v>26.795454545454547</v>
       </c>
     </row>
   </sheetData>
@@ -13742,508 +17673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB65157-03D1-447B-92E0-3948812A428A}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1">
-        <v>130</v>
-      </c>
-      <c r="D2" s="1">
-        <v>110</v>
-      </c>
-      <c r="E2" s="1">
-        <v>200</v>
-      </c>
-      <c r="F2" s="1">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1">
-        <v>140</v>
-      </c>
-      <c r="D4" s="1">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1">
-        <v>190</v>
-      </c>
-      <c r="F4" s="1">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>90</v>
-      </c>
-      <c r="C5" s="1">
-        <v>160</v>
-      </c>
-      <c r="D5" s="1">
-        <v>140</v>
-      </c>
-      <c r="E5" s="1">
-        <v>210</v>
-      </c>
-      <c r="F5" s="1">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1">
-        <v>150</v>
-      </c>
-      <c r="D6" s="1">
-        <v>140</v>
-      </c>
-      <c r="E6" s="1">
-        <v>200</v>
-      </c>
-      <c r="F6" s="1">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1">
-        <v>160</v>
-      </c>
-      <c r="D7" s="1">
-        <v>140</v>
-      </c>
-      <c r="E7" s="1">
-        <v>200</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>90</v>
-      </c>
-      <c r="C8" s="1">
-        <v>170</v>
-      </c>
-      <c r="D8" s="1">
-        <v>150</v>
-      </c>
-      <c r="E8" s="1">
-        <v>210</v>
-      </c>
-      <c r="F8" s="1">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1">
-        <v>140</v>
-      </c>
-      <c r="D9" s="1">
-        <v>130</v>
-      </c>
-      <c r="E9" s="1">
-        <v>200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1">
-        <v>170</v>
-      </c>
-      <c r="D10" s="1">
-        <v>150</v>
-      </c>
-      <c r="E10" s="1">
-        <v>200</v>
-      </c>
-      <c r="F10" s="1">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1">
-        <v>170</v>
-      </c>
-      <c r="D11" s="1">
-        <v>150</v>
-      </c>
-      <c r="E11" s="1">
-        <v>220</v>
-      </c>
-      <c r="F11" s="1">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1">
-        <v>280</v>
-      </c>
-      <c r="D12" s="1">
-        <v>210</v>
-      </c>
-      <c r="E12" s="1">
-        <v>350</v>
-      </c>
-      <c r="F12" s="1">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>110</v>
-      </c>
-      <c r="C13" s="1">
-        <v>200</v>
-      </c>
-      <c r="D13" s="1">
-        <v>180</v>
-      </c>
-      <c r="E13" s="1">
-        <v>250</v>
-      </c>
-      <c r="F13" s="1">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>90</v>
-      </c>
-      <c r="C14" s="1">
-        <v>180</v>
-      </c>
-      <c r="D14" s="1">
-        <v>150</v>
-      </c>
-      <c r="E14" s="1">
-        <v>220</v>
-      </c>
-      <c r="F14" s="1">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>90</v>
-      </c>
-      <c r="C15" s="1">
-        <v>180</v>
-      </c>
-      <c r="D15" s="1">
-        <v>160</v>
-      </c>
-      <c r="E15" s="1">
-        <v>240</v>
-      </c>
-      <c r="F15" s="1">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1">
-        <v>150</v>
-      </c>
-      <c r="D16" s="1">
-        <v>140</v>
-      </c>
-      <c r="E16" s="1">
-        <v>200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57025290-9A00-4608-A9F8-6B3F7342BC6F}">
   <dimension ref="A1:BY18"/>
   <sheetViews>
@@ -18050,4 +21480,2413 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C00147A-EBDD-46BF-93F4-91D6D12B912B}">
+  <dimension ref="A1:AC38"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="5"/>
+    <col min="18" max="18" width="14.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.77734375" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>115</v>
+      </c>
+      <c r="C3" s="5">
+        <v>122</v>
+      </c>
+      <c r="D3" s="2">
+        <v>120</v>
+      </c>
+      <c r="E3" s="5">
+        <v>121</v>
+      </c>
+      <c r="F3">
+        <f>C3-B3</f>
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f>D3-B3</f>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>E3-B3</f>
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <f>ABS(F3)</f>
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f>ABS(G3)</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>ABS(H3)</f>
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>47</v>
+      </c>
+      <c r="R3" s="2">
+        <v>40</v>
+      </c>
+      <c r="S3" s="5">
+        <v>40</v>
+      </c>
+      <c r="T3">
+        <f>Q3-P3</f>
+        <v>-1</v>
+      </c>
+      <c r="U3">
+        <f>R3-P3</f>
+        <v>-8</v>
+      </c>
+      <c r="V3">
+        <f>S3-P3</f>
+        <v>-8</v>
+      </c>
+      <c r="W3">
+        <f>ABS(T3)</f>
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f>ABS(U3)</f>
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <f>ABS(V3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" s="5">
+        <v>139</v>
+      </c>
+      <c r="D5" s="2">
+        <v>132</v>
+      </c>
+      <c r="E5" s="5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F17" si="0">C5-B5</f>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G17" si="1">D5-B5</f>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H17" si="2">E5-B5</f>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:K17" si="3">ABS(F5)</f>
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>52</v>
+      </c>
+      <c r="R5" s="2">
+        <v>40</v>
+      </c>
+      <c r="S5" s="5">
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T17" si="4">Q5-P5</f>
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U17" si="5">R5-P5</f>
+        <v>-8</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V17" si="6">S5-P5</f>
+        <v>-10</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:Y17" si="7">ABS(T5)</f>
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>147</v>
+      </c>
+      <c r="C6" s="5">
+        <v>154</v>
+      </c>
+      <c r="D6" s="2">
+        <v>152</v>
+      </c>
+      <c r="E6" s="5">
+        <v>148</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>55</v>
+      </c>
+      <c r="R6" s="2">
+        <v>42</v>
+      </c>
+      <c r="S6" s="5">
+        <v>56</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>147</v>
+      </c>
+      <c r="C7" s="5">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2">
+        <v>147</v>
+      </c>
+      <c r="E7" s="5">
+        <v>145</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>49</v>
+      </c>
+      <c r="R7" s="2">
+        <v>41</v>
+      </c>
+      <c r="S7" s="5">
+        <v>39</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>-7</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>-17</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>131</v>
+      </c>
+      <c r="C8" s="5">
+        <v>145</v>
+      </c>
+      <c r="D8" s="2">
+        <v>99</v>
+      </c>
+      <c r="E8" s="5">
+        <v>143</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-32</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>51</v>
+      </c>
+      <c r="R8" s="2">
+        <v>43</v>
+      </c>
+      <c r="S8" s="5">
+        <v>38</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>161</v>
+      </c>
+      <c r="C9" s="5">
+        <v>157</v>
+      </c>
+      <c r="D9" s="2">
+        <v>155</v>
+      </c>
+      <c r="E9" s="5">
+        <v>153</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>37</v>
+      </c>
+      <c r="R9" s="2">
+        <v>38</v>
+      </c>
+      <c r="S9" s="5">
+        <v>31</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>-15</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5">
+        <v>137</v>
+      </c>
+      <c r="D10" s="2">
+        <v>127</v>
+      </c>
+      <c r="E10" s="5">
+        <v>138</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>51</v>
+      </c>
+      <c r="R10" s="2">
+        <v>35</v>
+      </c>
+      <c r="S10" s="5">
+        <v>43</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>157</v>
+      </c>
+      <c r="C12" s="5">
+        <v>154</v>
+      </c>
+      <c r="D12" s="2">
+        <v>153</v>
+      </c>
+      <c r="E12" s="5">
+        <v>158</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>52</v>
+      </c>
+      <c r="R12" s="2">
+        <v>38</v>
+      </c>
+      <c r="S12" s="5">
+        <v>41</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>241</v>
+      </c>
+      <c r="C13" s="5">
+        <v>235</v>
+      </c>
+      <c r="D13" s="2">
+        <v>231</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>41</v>
+      </c>
+      <c r="R13" s="2">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>-7</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>185</v>
+      </c>
+      <c r="C14" s="5">
+        <v>184</v>
+      </c>
+      <c r="D14" s="2">
+        <v>185</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <f>D14-B14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>26</v>
+      </c>
+      <c r="R14" s="2">
+        <v>46</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5">
+        <v>152</v>
+      </c>
+      <c r="D15" s="2">
+        <v>165</v>
+      </c>
+      <c r="E15" s="5">
+        <v>162</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>30</v>
+      </c>
+      <c r="R15" s="2">
+        <v>49</v>
+      </c>
+      <c r="S15" s="5">
+        <v>43</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>-24</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>161</v>
+      </c>
+      <c r="C16" s="5">
+        <v>161</v>
+      </c>
+      <c r="D16" s="2">
+        <v>162</v>
+      </c>
+      <c r="E16" s="5">
+        <v>164</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>31</v>
+      </c>
+      <c r="R16" s="2">
+        <v>56</v>
+      </c>
+      <c r="S16" s="5">
+        <v>36</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>153</v>
+      </c>
+      <c r="C17" s="5">
+        <v>144</v>
+      </c>
+      <c r="D17" s="2">
+        <v>144</v>
+      </c>
+      <c r="E17" s="5">
+        <v>141</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>54</v>
+      </c>
+      <c r="R17" s="2">
+        <v>40</v>
+      </c>
+      <c r="S17" s="5">
+        <v>33</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <f>AVERAGE(F3:F17)</f>
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(G3:G17)</f>
+        <v>-2.5384615384615383</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(H3:H17)</f>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(I3:I17)</f>
+        <v>6.2307692307692308</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="8">AVERAGE(J3:J17)</f>
+        <v>7.4615384615384617</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:Y18" si="9">AVERAGE(T3:T17)</f>
+        <v>-3.6153846153846154</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>-5.7692307692307692</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
+        <v>-9</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>7.9230769230769234</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="9"/>
+        <v>8.5384615384615383</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="9"/>
+        <v>10.454545454545455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f>B3+1.1*P3</f>
+        <v>167.8</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>C3+1.1*Q3</f>
+        <v>173.7</v>
+      </c>
+      <c r="R22" s="2">
+        <f>D3+1.1*R3</f>
+        <v>164</v>
+      </c>
+      <c r="S22" s="5">
+        <f>E3+1.1*S3</f>
+        <v>165</v>
+      </c>
+      <c r="T22">
+        <f>Q22-P22</f>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="U22">
+        <f>R22-P22</f>
+        <v>-3.8000000000000114</v>
+      </c>
+      <c r="V22">
+        <f>S22-P22</f>
+        <v>-2.8000000000000114</v>
+      </c>
+      <c r="W22">
+        <f>ABS(T22)</f>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:Y22" si="10">ABS(U22)</f>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="10"/>
+        <v>2.8000000000000114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f>B3-1.75*P3</f>
+        <v>31</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C3-1.75*Q3</f>
+        <v>39.75</v>
+      </c>
+      <c r="D23" s="2">
+        <f>D3-1.75*R3</f>
+        <v>50</v>
+      </c>
+      <c r="E23" s="5">
+        <f>E3-1.75*S3</f>
+        <v>51</v>
+      </c>
+      <c r="F23">
+        <f>C23-B23</f>
+        <v>8.75</v>
+      </c>
+      <c r="G23">
+        <f>D23-B23</f>
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <f>E23-B23</f>
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <f>ABS(F23)</f>
+        <v>8.75</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:K23" si="11">ABS(G23)</f>
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:S36" si="12">B5+1.1*P5</f>
+        <v>175.8</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="12"/>
+        <v>196.2</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="12"/>
+        <v>169.8</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24:T36" si="13">Q24-P24</f>
+        <v>20.399999999999977</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:U36" si="14">R24-P24</f>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ref="V24:V36" si="15">S24-P24</f>
+        <v>-6</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:Y36" si="16">ABS(T24)</f>
+        <v>20.399999999999977</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="16"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:E37" si="17">B5-1.75*P5</f>
+        <v>39</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="17"/>
+        <v>62</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="17"/>
+        <v>61.5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F37" si="18">C25-B25</f>
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G37" si="19">D25-B25</f>
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H37" si="20">E25-B25</f>
+        <v>22.5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:K38" si="21">ABS(F25)</f>
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="21"/>
+        <v>22.5</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="12"/>
+        <v>199.8</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="12"/>
+        <v>214.5</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="12"/>
+        <v>198.2</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="12"/>
+        <v>209.60000000000002</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="13"/>
+        <v>14.699999999999989</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="14"/>
+        <v>-1.6000000000000227</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="15"/>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>14.699999999999989</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="16"/>
+        <v>9.8000000000000114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="17"/>
+        <v>57.75</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="17"/>
+        <v>78.5</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="18"/>
+        <v>-5.25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="19"/>
+        <v>15.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="20"/>
+        <v>-13</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="21"/>
+        <v>5.25</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="21"/>
+        <v>15.5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="12"/>
+        <v>208.60000000000002</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="12"/>
+        <v>193.9</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="12"/>
+        <v>192.1</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="12"/>
+        <v>187.9</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="13"/>
+        <v>-14.700000000000017</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="14"/>
+        <v>-16.500000000000028</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="15"/>
+        <v>-20.700000000000017</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="16"/>
+        <v>14.700000000000017</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>16.500000000000028</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="16"/>
+        <v>20.700000000000017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="17"/>
+        <v>54.25</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="17"/>
+        <v>75.25</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="17"/>
+        <v>76.75</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="18"/>
+        <v>5.25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="19"/>
+        <v>26.25</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="20"/>
+        <v>27.75</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="21"/>
+        <v>5.25</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="21"/>
+        <v>26.25</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="21"/>
+        <v>27.75</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="12"/>
+        <v>183.8</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="12"/>
+        <v>201.1</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="12"/>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="12"/>
+        <v>184.8</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="13"/>
+        <v>17.299999999999983</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="14"/>
+        <v>-37.5</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="16"/>
+        <v>17.299999999999983</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>37.5</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="17"/>
+        <v>55.75</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="17"/>
+        <v>23.75</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="17"/>
+        <v>76.5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="18"/>
+        <v>8.75</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="19"/>
+        <v>-23.25</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="20"/>
+        <v>29.5</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="21"/>
+        <v>8.75</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="21"/>
+        <v>23.25</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="21"/>
+        <v>29.5</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="12"/>
+        <v>211.6</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="12"/>
+        <v>197.7</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="12"/>
+        <v>196.8</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="12"/>
+        <v>187.1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="13"/>
+        <v>-13.900000000000006</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="14"/>
+        <v>-14.799999999999983</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="15"/>
+        <v>-24.5</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="16"/>
+        <v>13.900000000000006</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="16"/>
+        <v>14.799999999999983</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="16"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="17"/>
+        <v>80.5</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="17"/>
+        <v>92.25</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="17"/>
+        <v>88.5</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="17"/>
+        <v>98.75</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="18"/>
+        <v>11.75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="20"/>
+        <v>18.25</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="21"/>
+        <v>11.75</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="21"/>
+        <v>18.25</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="12"/>
+        <v>183.8</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="12"/>
+        <v>193.1</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="12"/>
+        <v>165.5</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="12"/>
+        <v>185.3</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="13"/>
+        <v>9.2999999999999829</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="14"/>
+        <v>-18.300000000000011</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="16"/>
+        <v>9.2999999999999829</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="16"/>
+        <v>18.300000000000011</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="17"/>
+        <v>47.75</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="17"/>
+        <v>65.75</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="17"/>
+        <v>62.75</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="18"/>
+        <v>0.75</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="19"/>
+        <v>18.75</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="20"/>
+        <v>15.75</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="21"/>
+        <v>18.75</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="21"/>
+        <v>15.75</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:Q36" si="22">B12+1.1*P12</f>
+        <v>202.1</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="22"/>
+        <v>211.2</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="12"/>
+        <v>194.8</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="12"/>
+        <v>203.1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="13"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="14"/>
+        <v>-7.2999999999999829</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="16"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="16"/>
+        <v>7.2999999999999829</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="17"/>
+        <v>85.25</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="17"/>
+        <v>86.5</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="17"/>
+        <v>86.25</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="18"/>
+        <v>-22.25</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="19"/>
+        <v>1.25</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="21"/>
+        <v>22.25</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="21"/>
+        <v>1.25</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="22"/>
+        <v>293.8</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="22"/>
+        <v>280.10000000000002</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="12"/>
+        <v>275</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="13"/>
+        <v>-13.699999999999989</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="14"/>
+        <v>-18.800000000000011</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="16"/>
+        <v>13.699999999999989</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="16"/>
+        <v>18.800000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="17"/>
+        <v>157</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="17"/>
+        <v>163.25</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="17"/>
+        <v>161</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="18"/>
+        <v>6.25</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="21"/>
+        <v>6.25</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="22"/>
+        <v>226.8</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="22"/>
+        <v>212.6</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="12"/>
+        <v>235.6</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="13"/>
+        <v>-14.200000000000017</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="14"/>
+        <v>8.7999999999999829</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="16"/>
+        <v>14.200000000000017</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="16"/>
+        <v>8.7999999999999829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="17"/>
+        <v>118.5</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="17"/>
+        <v>138.5</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="17"/>
+        <v>104.5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>-14</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="22"/>
+        <v>212.4</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="22"/>
+        <v>185</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="12"/>
+        <v>218.9</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="12"/>
+        <v>209.3</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="13"/>
+        <v>-27.400000000000006</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="14"/>
+        <v>6.5</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="16"/>
+        <v>27.400000000000006</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="16"/>
+        <v>6.5</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="16"/>
+        <v>3.0999999999999943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="17"/>
+        <v>58.5</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="17"/>
+        <v>99.5</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="17"/>
+        <v>79.25</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="17"/>
+        <v>86.75</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="19"/>
+        <v>20.75</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="20"/>
+        <v>28.25</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="21"/>
+        <v>41</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="21"/>
+        <v>20.75</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="21"/>
+        <v>28.25</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="22"/>
+        <v>211.6</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="22"/>
+        <v>195.1</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="12"/>
+        <v>223.60000000000002</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="12"/>
+        <v>203.6</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="13"/>
+        <v>-16.5</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="14"/>
+        <v>12.000000000000028</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>16.5</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="16"/>
+        <v>12.000000000000028</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="17"/>
+        <v>80.5</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="17"/>
+        <v>106.75</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="17"/>
+        <v>101</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="18"/>
+        <v>26.25</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="19"/>
+        <v>-16.5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="20"/>
+        <v>20.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="21"/>
+        <v>26.25</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="21"/>
+        <v>16.5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="21"/>
+        <v>20.5</v>
+      </c>
+      <c r="O36">
+        <v>15</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="22"/>
+        <v>212.4</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="22"/>
+        <v>203.4</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="12"/>
+        <v>188</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="12"/>
+        <v>177.3</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="13"/>
+        <v>-9</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="14"/>
+        <v>-24.400000000000006</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>-35.099999999999994</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="16"/>
+        <v>24.400000000000006</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="16"/>
+        <v>35.099999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="17"/>
+        <v>58.5</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="17"/>
+        <v>49.5</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="17"/>
+        <v>74</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="17"/>
+        <v>83.25</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="18"/>
+        <v>-9</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="19"/>
+        <v>15.5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="20"/>
+        <v>24.75</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="21"/>
+        <v>15.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="21"/>
+        <v>24.75</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37:Y37" si="23">AVERAGE(T22:T36)</f>
+        <v>-2.5153846153846255</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="23"/>
+        <v>-8.8846153846153886</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="23"/>
+        <v>-7.9</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="23"/>
+        <v>14.315384615384611</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="23"/>
+        <v>13.11538461538462</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="23"/>
+        <v>10.31818181818182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f>AVERAGE(F23:F37)</f>
+        <v>7.7884615384615383</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(G23:G37)</f>
+        <v>7.5576923076923075</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(H23:H37)</f>
+        <v>17.75</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="21"/>
+        <v>7.7884615384615383</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="21"/>
+        <v>7.5576923076923075</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE(K23:K37)</f>
+        <v>20.113636363636363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>